--- a/config/covid-19/forms/contact/person-edit.xlsx
+++ b/config/covid-19/forms/contact/person-edit.xlsx
@@ -1,24 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
+  <bookViews>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="survey" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="choices" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="settings" sheetId="3" r:id="rId6"/>
+    <sheet name="survey" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="choices" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="settings" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <definedNames/>
   <calcPr/>
-  <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataSignature="AMtx7mgwOdnrVucgt4bRvsJ70B2MjQIIyA=="/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="370">
   <si>
     <t>type</t>
   </si>
@@ -116,7 +113,7 @@
     <t>notes</t>
   </si>
   <si>
-    <t>begin group</t>
+    <t xml:space="preserve">begin group</t>
   </si>
   <si>
     <t>inputs</t>
@@ -134,58 +131,58 @@
     <t>contact_id</t>
   </si>
   <si>
-    <t>Contact ID of the logged in user</t>
-  </si>
-  <si>
-    <t>Mawasiliano ya mtumizi</t>
-  </si>
-  <si>
-    <t>लग इन गरेको प्रयोगकर्ताको सम्पर्क ID</t>
-  </si>
-  <si>
-    <t>Identifiant de l'utilisateur</t>
+    <t xml:space="preserve">Contact ID of the logged in user</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mawasiliano ya mtumizi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">लग इन गरेको प्रयोगकर्ताको सम्पर्क ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifiant de l'utilisateur</t>
   </si>
   <si>
     <t>facility_id</t>
   </si>
   <si>
-    <t>Place ID of the logged in user</t>
-  </si>
-  <si>
-    <t>लॉग इन यूज़र के स्थान का ID</t>
-  </si>
-  <si>
-    <t>ID Tempat dari login user</t>
-  </si>
-  <si>
-    <t>Mahali ya kitambulisho ya Mtumizi</t>
-  </si>
-  <si>
-    <t>लग इन गरेको प्रयोगकर्ताको स्थानको ID</t>
-  </si>
-  <si>
-    <t>Identifiant du centre</t>
-  </si>
-  <si>
-    <t>Name of the logged in user</t>
-  </si>
-  <si>
-    <t>लॉग इन यूज़र का नाम</t>
-  </si>
-  <si>
-    <t>Nama dari login user</t>
-  </si>
-  <si>
-    <t>Jina la mtumizi</t>
-  </si>
-  <si>
-    <t>लग इन गरेको प्रयोगकर्ताको नाम</t>
+    <t xml:space="preserve">Place ID of the logged in user</t>
+  </si>
+  <si>
+    <t xml:space="preserve">लॉग इन यूज़र के स्थान का ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID Tempat dari login user</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mahali ya kitambulisho ya Mtumizi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">लग इन गरेको प्रयोगकर्ताको स्थानको ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifiant du centre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name of the logged in user</t>
+  </si>
+  <si>
+    <t xml:space="preserve">लॉग इन यूज़र का नाम</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nama dari login user</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jina la mtumizi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">लग इन गरेको प्रयोगकर्ताको नाम</t>
   </si>
   <si>
     <t>Nom</t>
   </si>
   <si>
-    <t>end group</t>
+    <t xml:space="preserve">end group</t>
   </si>
   <si>
     <t>init</t>
@@ -194,7 +191,7 @@
     <t>field-list</t>
   </si>
   <si>
-    <t>Cannot be inside the person group without having all fields saved to person. And needs separate db-objects because cannot have one that handles the different place types</t>
+    <t xml:space="preserve">Cannot be inside the person group without having all fields saved to person. And needs separate db-objects because cannot have one that handles the different place types</t>
   </si>
   <si>
     <t>calculate</t>
@@ -206,7 +203,7 @@
     <t>../../person/name</t>
   </si>
   <si>
-    <t>Copy to access from within note</t>
+    <t xml:space="preserve">Copy to access from within note</t>
   </si>
   <si>
     <t>person_place_name</t>
@@ -218,13 +215,13 @@
     <t>person_parent</t>
   </si>
   <si>
-    <t>Current place</t>
-  </si>
-  <si>
-    <t>Place actuelle</t>
-  </si>
-  <si>
-    <t>db-object hidden</t>
+    <t xml:space="preserve">Current place</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Place actuelle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">db-object hidden</t>
   </si>
   <si>
     <t>yes</t>
@@ -236,7 +233,7 @@
     <t>hidden</t>
   </si>
   <si>
-    <t>Indirection required to be able to change the db field accordingly</t>
+    <t xml:space="preserve">Indirection required to be able to change the db field accordingly</t>
   </si>
   <si>
     <t>note</t>
@@ -245,46 +242,46 @@
     <t>note_place</t>
   </si>
   <si>
-    <t>${person_name}&amp;nbsp;currently belongs to **${person_place_name}**</t>
-  </si>
-  <si>
-    <t>${person_name}&amp;nbsp;अब **${person_place_name}** में है</t>
-  </si>
-  <si>
-    <t>${person_name}&amp;nbsp;milik **${person_place_name}**</t>
-  </si>
-  <si>
-    <t>${person_name}&amp;nbsp;Ni wa **${person_place_name}**</t>
-  </si>
-  <si>
-    <t>${person_name}&amp;nbsp; हाल यो  **${person_place_name}**सँग छ</t>
-  </si>
-  <si>
-    <t>${person_name}&amp;nbsp;appartient à **${person_place_name}**</t>
-  </si>
-  <si>
-    <t>select_one yes_no</t>
+    <t xml:space="preserve">${person_name}&amp;nbsp;currently belongs to **${person_place_name}**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${person_name}&amp;nbsp;अब **${person_place_name}** में है</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${person_name}&amp;nbsp;milik **${person_place_name}**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${person_name}&amp;nbsp;Ni wa **${person_place_name}**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${person_name}&amp;nbsp; हाल यो  **${person_place_name}**सँग छ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${person_name}&amp;nbsp;appartient à **${person_place_name}**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select_one yes_no</t>
   </si>
   <si>
     <t>change_parent</t>
   </si>
   <si>
-    <t>Would you like to move them to another place?</t>
-  </si>
-  <si>
-    <t>क्या आप इस व्यक्ति को दूसरे स्थान पर ले जाना चाहेंगे?</t>
-  </si>
-  <si>
-    <t>Apakah Anda ingin memindahkan mereka ke tempat lain?</t>
-  </si>
-  <si>
-    <t>Ungependa kuwahamisha mahali pengine?</t>
-  </si>
-  <si>
-    <t>के तपाई यस व्यक्तिलाई कुनै अन्य स्थानमा लैजान चाहनुहुन्छ?</t>
-  </si>
-  <si>
-    <t>Voulez-vous déplacer cette personne vers une autre place ?</t>
+    <t xml:space="preserve">Would you like to move them to another place?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">क्या आप इस व्यक्ति को दूसरे स्थान पर ले जाना चाहेंगे?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apakah Anda ingin memindahkan mereka ke tempat lain?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ungependa kuwahamisha mahali pengine?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">के तपाई यस व्यक्तिलाई कुनै अन्य स्थानमा लैजान चाहनुहुन्छ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Voulez-vous déplacer cette personne vers une autre place ?</t>
   </si>
   <si>
     <t>horizontal-compact</t>
@@ -293,31 +290,31 @@
     <t>false</t>
   </si>
   <si>
-    <t>select_one place_type</t>
+    <t xml:space="preserve">select_one place_type</t>
   </si>
   <si>
     <t>edited_place_type</t>
   </si>
   <si>
-    <t>Search for place by</t>
-  </si>
-  <si>
-    <t>जगह की खोज</t>
-  </si>
-  <si>
-    <t>Cari tempat oleh</t>
-  </si>
-  <si>
-    <t>Tafuta mahali kwa</t>
-  </si>
-  <si>
-    <t>स्थान को खोजी</t>
-  </si>
-  <si>
-    <t>Rechercher par type de place</t>
-  </si>
-  <si>
-    <t>selected(${change_parent}, 'true')</t>
+    <t xml:space="preserve">Search for place by</t>
+  </si>
+  <si>
+    <t xml:space="preserve">जगह की खोज</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cari tempat oleh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tafuta mahali kwa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">स्थान को खोजी</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rechercher par type de place</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected(${change_parent}, 'true')</t>
   </si>
   <si>
     <t>db:district_hospital</t>
@@ -326,31 +323,31 @@
     <t>id_district_hospital</t>
   </si>
   <si>
-    <t>Select health facillity</t>
-  </si>
-  <si>
-    <t>जिला अस्पताल चुनें</t>
-  </si>
-  <si>
-    <t>Pilih Rumah Sakit kabupaten</t>
-  </si>
-  <si>
-    <t>Chagua hospitali ya wilaya</t>
-  </si>
-  <si>
-    <t>जिल्ला अस्पताल रोज्नुहोस्</t>
-  </si>
-  <si>
-    <t>Choisissez le district</t>
-  </si>
-  <si>
-    <t>selected(${change_parent}, 'true') and selected(${edited_place_type}, 'district_hospital')</t>
-  </si>
-  <si>
-    <t>db-object bind-id-only</t>
-  </si>
-  <si>
-    <t>District Hospital</t>
+    <t xml:space="preserve">Select health facillity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">जिला अस्पताल चुनें</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pilih Rumah Sakit kabupaten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chagua hospitali ya wilaya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">जिल्ला अस्पताल रोज्नुहोस्</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choisissez le district</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected(${change_parent}, 'true') and selected(${edited_place_type}, 'district_hospital')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">db-object bind-id-only</t>
+  </si>
+  <si>
+    <t xml:space="preserve">District Hospital</t>
   </si>
   <si>
     <t>db:health_center</t>
@@ -359,28 +356,28 @@
     <t>id_health_center</t>
   </si>
   <si>
-    <t>Select area</t>
-  </si>
-  <si>
-    <t>स्वास्थ्य केंद्र चुनें</t>
-  </si>
-  <si>
-    <t>Pilih Fasilitas Kesehatan</t>
-  </si>
-  <si>
-    <t>Chagua kituo cha afya</t>
-  </si>
-  <si>
-    <t>स्वास्थ्य संस्था रोज्नुहोस्</t>
-  </si>
-  <si>
-    <t>Choisissez le centre de santé</t>
-  </si>
-  <si>
-    <t>selected(${change_parent}, 'true') and selected(${edited_place_type}, 'health_center')</t>
-  </si>
-  <si>
-    <t>Health Center</t>
+    <t xml:space="preserve">Select area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">स्वास्थ्य केंद्र चुनें</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pilih Fasilitas Kesehatan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chagua kituo cha afya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">स्वास्थ्य संस्था रोज्नुहोस्</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choisissez le centre de santé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected(${change_parent}, 'true') and selected(${edited_place_type}, 'health_center')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Health Center</t>
   </si>
   <si>
     <t>db:clinic</t>
@@ -389,25 +386,25 @@
     <t>id_clinic</t>
   </si>
   <si>
-    <t>Select household</t>
-  </si>
-  <si>
-    <t>अस्पताल चुनें</t>
-  </si>
-  <si>
-    <t>Pilih Klinik</t>
-  </si>
-  <si>
-    <t>Chagua kliniki</t>
-  </si>
-  <si>
-    <t>क्लिनिक रोज्नुहोस्</t>
-  </si>
-  <si>
-    <t>Choisissez la zone</t>
-  </si>
-  <si>
-    <t>selected(${change_parent}, 'true') and selected(${edited_place_type}, 'clinic')</t>
+    <t xml:space="preserve">Select household</t>
+  </si>
+  <si>
+    <t xml:space="preserve">अस्पताल चुनें</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pilih Klinik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chagua kliniki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">क्लिनिक रोज्नुहोस्</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choisissez la zone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected(${change_parent}, 'true') and selected(${edited_place_type}, 'clinic')</t>
   </si>
   <si>
     <t>Clinic</t>
@@ -416,43 +413,43 @@
     <t>person</t>
   </si>
   <si>
-    <t>Edit person</t>
-  </si>
-  <si>
-    <t>व्यक्ति बदलें</t>
-  </si>
-  <si>
-    <t>Mengedit Orang</t>
-  </si>
-  <si>
-    <t>Badilisha maelezo ya mtu</t>
+    <t xml:space="preserve">Edit person</t>
+  </si>
+  <si>
+    <t xml:space="preserve">व्यक्ति बदलें</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mengedit Orang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Badilisha maelezo ya mtu</t>
   </si>
   <si>
     <t xml:space="preserve">ब्यक्ति सम्पादन </t>
   </si>
   <si>
-    <t>Modifier personne</t>
-  </si>
-  <si>
-    <t>Upload script will move group to just beneath inputs in data model. Otherwise person is not properly created.</t>
+    <t xml:space="preserve">Modifier personne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upload script will move group to just beneath inputs in data model. Otherwise person is not properly created.</t>
   </si>
   <si>
     <t>parent</t>
   </si>
   <si>
-    <t>coalesce(coalesce(coalesce(${id_district_hospital}, ${id_health_center}), ${id_clinic}),${parent})</t>
+    <t xml:space="preserve">coalesce(coalesce(coalesce(${id_district_hospital}, ${id_health_center}), ${id_clinic}),${parent})</t>
   </si>
   <si>
     <t>_id</t>
   </si>
   <si>
-    <t>Cannot change</t>
+    <t xml:space="preserve">Cannot change</t>
   </si>
   <si>
     <t>first_name</t>
   </si>
   <si>
-    <t>First name</t>
+    <t xml:space="preserve">First name</t>
   </si>
   <si>
     <t>last_name</t>
@@ -461,28 +458,28 @@
     <t xml:space="preserve">Last name </t>
   </si>
   <si>
-    <t>concat(${first_name}, ' ', ${last_name})</t>
+    <t xml:space="preserve">concat(${first_name}, ' ', ${last_name})</t>
   </si>
   <si>
     <t>date_of_birth</t>
   </si>
   <si>
-    <t>Date of birth</t>
-  </si>
-  <si>
-    <t>जन्म की तारीख</t>
-  </si>
-  <si>
-    <t>Tanggal Lahir</t>
-  </si>
-  <si>
-    <t>Tarehe ya Kuzaliwa</t>
-  </si>
-  <si>
-    <t>जन्म मिती</t>
-  </si>
-  <si>
-    <t>Date de naissance</t>
+    <t xml:space="preserve">Date of birth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">जन्म की तारीख</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tanggal Lahir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tarehe ya Kuzaliwa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">जन्म मिती</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date de naissance</t>
   </si>
   <si>
     <t>../ephemeral_dob/dob_iso</t>
@@ -491,7 +488,7 @@
     <t>date_of_birth_method</t>
   </si>
   <si>
-    <t>Method to select date of birth</t>
+    <t xml:space="preserve">Method to select date of birth</t>
   </si>
   <si>
     <t>../ephemeral_dob/dob_method</t>
@@ -512,13 +509,13 @@
     <t>not(selected(../dob_method,'approx'))</t>
   </si>
   <si>
-    <t>floor(decimal-date-time(.)) &lt;= floor(decimal-date-time(today()))</t>
-  </si>
-  <si>
-    <t>Date must be before today</t>
-  </si>
-  <si>
-    <t>Date of Birth</t>
+    <t xml:space="preserve">floor(decimal-date-time(.)) &lt;= floor(decimal-date-time(today()))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date must be before today</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date of Birth</t>
   </si>
   <si>
     <t>age_label</t>
@@ -539,10 +536,10 @@
     <t>Years</t>
   </si>
   <si>
-    <t>. &gt;= 0 and . &lt;= 130</t>
-  </si>
-  <si>
-    <t>Age must be between 0 and 130</t>
+    <t xml:space="preserve">. &gt;= 0 and . &lt;= 130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Age must be between 0 and 130</t>
   </si>
   <si>
     <t>age_months</t>
@@ -551,13 +548,13 @@
     <t>Months</t>
   </si>
   <si>
-    <t>. &gt;= 0 and . &lt;= 11</t>
-  </si>
-  <si>
-    <t>Months must between 0 and 11</t>
-  </si>
-  <si>
-    <t>select_multiple select_dob_method</t>
+    <t xml:space="preserve">. &gt;= 0 and . &lt;= 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Months must between 0 and 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select_multiple select_dob_method</t>
   </si>
   <si>
     <t>dob_method</t>
@@ -572,25 +569,25 @@
     <t>ephemeral_months</t>
   </si>
   <si>
-    <t>if(format-date-time(today(),"%m") - ../age_months &lt; 0, format-date-time(today(),"%m") - ../age_months + 12, format-date-time(today(),"%m") - ../age_months)</t>
+    <t xml:space="preserve">if(format-date-time(today(),"%m") - coalesce(../age_months, 0) &lt; 0, format-date-time(today(),"%m") - coalesce(../age_months, 0) + 12, format-date-time(today(),"%m") - coalesce(../age_months, 0))</t>
   </si>
   <si>
     <t>ephemeral_years</t>
   </si>
   <si>
-    <t>if(format-date-time(today(),"%m") - ../age_months &lt; 0, format-date-time(today(),"%Y") - ../age_years - 1, format-date-time(today(),"%Y") -../age_years)</t>
+    <t xml:space="preserve">if(format-date-time(today(),"%m") - coalesce(../age_months, 0) &lt; 0, format-date-time(today(),"%Y") - ../age_years - 1, format-date-time(today(),"%Y") -../age_years)</t>
   </si>
   <si>
     <t>dob_approx</t>
   </si>
   <si>
-    <t>concat(string(${ephemeral_years}),'-',if(${ephemeral_months}&lt;10, concat('0',string(${ephemeral_months})), ${ephemeral_months}),'-',string(format-date-time(today(), "%d")))</t>
+    <t xml:space="preserve">concat(string(${ephemeral_years}),'-',if(${ephemeral_months}&lt;10, concat('0',string(${ephemeral_months})), ${ephemeral_months}),'-',string(format-date-time(today(), "%d")))</t>
   </si>
   <si>
     <t>dob_raw</t>
   </si>
   <si>
-    <t>if(not(selected( ../dob_method,'approx')), 
+    <t xml:space="preserve">if(not(selected( ../dob_method,'approx')), 
 ../dob_calendar,
 ../dob_approx)</t>
   </si>
@@ -604,7 +601,7 @@
     <t>dob_debug</t>
   </si>
   <si>
-    <t>Months: ${ephemeral_months}
+    <t xml:space="preserve">Months: ${ephemeral_months}
 Year: ${ephemeral_years}
 DOB Approx: ${dob_approx}
 DOB Calendar: ${dob_calendar}
@@ -617,16 +614,16 @@
     <t>phone</t>
   </si>
   <si>
-    <t>Phone number</t>
-  </si>
-  <si>
-    <t>फोन नंबर</t>
-  </si>
-  <si>
-    <t>Nomor Telepon</t>
-  </si>
-  <si>
-    <t>Namba ya simu</t>
+    <t xml:space="preserve">Phone number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">फोन नंबर</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nomor Telepon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Namba ya simu</t>
   </si>
   <si>
     <t xml:space="preserve">फोन नम्बर </t>
@@ -635,37 +632,37 @@
     <t>Téléphone</t>
   </si>
   <si>
-    <t>Please enter a valid local number, or use the standard international format, which includes a plus sign (+) and country code. For example: +13125551211</t>
-  </si>
-  <si>
-    <t>कृपया एक सही स्थानीय नंबर दर्ज करें, या मानक अंतरराष्ट्रीय प्रारूप का उपयोग करें, जिसमें एक प्लस साइन (+) और देश कोड शामिल है। उदाहरण के लिए: +13125551211</t>
-  </si>
-  <si>
-    <t>Veuillez entrer un numéro local valide ou utiliser le format international standard, qui comprend un signe plus (+) et le code du pays. Par exemple: +13125551211</t>
+    <t xml:space="preserve">Please enter a valid local number, or use the standard international format, which includes a plus sign (+) and country code. For example: +13125551211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">कृपया एक सही स्थानीय नंबर दर्ज करें, या मानक अंतरराष्ट्रीय प्रारूप का उपयोग करें, जिसमें एक प्लस साइन (+) और देश कोड शामिल है। उदाहरण के लिए: +13125551211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veuillez entrer un numéro local valide ou utiliser le format international standard, qui comprend un signe plus (+) et le code du pays. Par exemple: +13125551211</t>
   </si>
   <si>
     <t>phone_alternate</t>
   </si>
   <si>
-    <t>Alternate phone number</t>
-  </si>
-  <si>
-    <t>अन्य फोन नंबर</t>
-  </si>
-  <si>
-    <t>Nomor Telepon Alternatif</t>
-  </si>
-  <si>
-    <t>Namba nyingine ya simu</t>
+    <t xml:space="preserve">Alternate phone number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">अन्य फोन नंबर</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nomor Telepon Alternatif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Namba nyingine ya simu</t>
   </si>
   <si>
     <t xml:space="preserve">अन्य फोन नम्बर </t>
   </si>
   <si>
-    <t>Téléphone alternatif</t>
-  </si>
-  <si>
-    <t>select_one male_female</t>
+    <t xml:space="preserve">Téléphone alternatif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select_one male_female</t>
   </si>
   <si>
     <t>sex</t>
@@ -677,7 +674,7 @@
     <t>लिंग</t>
   </si>
   <si>
-    <t>Jenis kelamin</t>
+    <t xml:space="preserve">Jenis kelamin</t>
   </si>
   <si>
     <t>Jinsia</t>
@@ -692,7 +689,7 @@
     <t>Address</t>
   </si>
   <si>
-    <t>select_one roles</t>
+    <t xml:space="preserve">select_one roles</t>
   </si>
   <si>
     <t>role</t>
@@ -716,46 +713,46 @@
     <t>role_other</t>
   </si>
   <si>
-    <t>Specify other</t>
-  </si>
-  <si>
-    <t>अन्य का उल्‍लेख करें</t>
-  </si>
-  <si>
-    <t>Tentukan lainnya</t>
-  </si>
-  <si>
-    <t>Fafanua nyingine</t>
-  </si>
-  <si>
-    <t>अन्य उल्लेख गर्नुहोस्</t>
-  </si>
-  <si>
-    <t>Autre rôle</t>
-  </si>
-  <si>
-    <t>selected( ${role},'other')</t>
+    <t xml:space="preserve">Specify other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">अन्य का उल्‍लेख करें</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tentukan lainnya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fafanua nyingine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">अन्य उल्लेख गर्नुहोस्</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Autre rôle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected( ${role},'other')</t>
   </si>
   <si>
     <t>external_id</t>
   </si>
   <si>
-    <t>External ID</t>
-  </si>
-  <si>
-    <t>बाहरी ID</t>
-  </si>
-  <si>
-    <t>Eksternal ID</t>
-  </si>
-  <si>
-    <t>Kitambulisho ya nje</t>
-  </si>
-  <si>
-    <t>बहिरी ID</t>
-  </si>
-  <si>
-    <t>Identifiant externe</t>
+    <t xml:space="preserve">External ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">बाहरी ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eksternal ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kitambulisho ya nje</t>
+  </si>
+  <si>
+    <t xml:space="preserve">बहिरी ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifiant externe</t>
   </si>
   <si>
     <t>Notes</t>
@@ -941,22 +938,22 @@
     <t>approx</t>
   </si>
   <si>
-    <t>Date unknown</t>
+    <t xml:space="preserve">Date unknown</t>
   </si>
   <si>
     <t xml:space="preserve">जन्म की तारीख का पता नहीं </t>
   </si>
   <si>
-    <t>Tanggal tidak diketahui lahir</t>
-  </si>
-  <si>
-    <t>Tarehe haijulikani</t>
-  </si>
-  <si>
-    <t>जन्म मिती थाहा नभएको</t>
-  </si>
-  <si>
-    <t>Date de naissance inconnue</t>
+    <t xml:space="preserve">Tanggal tidak diketahui lahir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tarehe haijulikani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">जन्म मिती थाहा नभएको</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date de naissance inconnue</t>
   </si>
   <si>
     <t>roles</t>
@@ -968,16 +965,16 @@
     <t>CHW</t>
   </si>
   <si>
-    <t>सामुदायिक स्वास्थ्य कर्मी</t>
+    <t xml:space="preserve">सामुदायिक स्वास्थ्य कर्मी</t>
   </si>
   <si>
     <t>Kader</t>
   </si>
   <si>
-    <t>Mhudumu wa afya</t>
-  </si>
-  <si>
-    <t>महिला स्वास्थ्य स्वयम् सेविका</t>
+    <t xml:space="preserve">Mhudumu wa afya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">महिला स्वास्थ्य स्वयम् सेविका</t>
   </si>
   <si>
     <t>ASC</t>
@@ -986,22 +983,22 @@
     <t>chw_supervisor</t>
   </si>
   <si>
-    <t>CHW Supervisor</t>
-  </si>
-  <si>
-    <t>सामुदायिक स्वास्थ्य कर्मी के मैनेजर</t>
-  </si>
-  <si>
-    <t>Kader Pengawas</t>
-  </si>
-  <si>
-    <t>Mkuu wa wahudumu wa afya</t>
-  </si>
-  <si>
-    <t>महिला स्वास्थ्य स्वयम् सेविकाको सुपरभाइजर</t>
-  </si>
-  <si>
-    <t>Superviseur ASC</t>
+    <t xml:space="preserve">CHW Supervisor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">सामुदायिक स्वास्थ्य कर्मी के मैनेजर</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kader Pengawas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mkuu wa wahudumu wa afya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">महिला स्वास्थ्य स्वयम् सेविकाको सुपरभाइजर</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Superviseur ASC</t>
   </si>
   <si>
     <t>patient</t>
@@ -1046,7 +1043,7 @@
     <t>district_hospital</t>
   </si>
   <si>
-    <t>Health Facility</t>
+    <t xml:space="preserve">Health Facility</t>
   </si>
   <si>
     <t>ज़िला</t>
@@ -1070,19 +1067,19 @@
     <t>Area</t>
   </si>
   <si>
-    <t>स्वास्थ्य केंद्र</t>
-  </si>
-  <si>
-    <t>Fasilitas Kesehatan</t>
-  </si>
-  <si>
-    <t>kituo cha afya</t>
-  </si>
-  <si>
-    <t>स्वास्थ्य केन्द्र</t>
-  </si>
-  <si>
-    <t>Centre de santé</t>
+    <t xml:space="preserve">स्वास्थ्य केंद्र</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fasilitas Kesehatan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kituo cha afya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">स्वास्थ्य केन्द्र</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Centre de santé</t>
   </si>
   <si>
     <t>clinic</t>
@@ -1121,7 +1118,7 @@
     <t>default_language</t>
   </si>
   <si>
-    <t>Edit Person</t>
+    <t xml:space="preserve">Edit Person</t>
   </si>
   <si>
     <t>contact:person:edit</t>
@@ -1139,47 +1136,47 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8">
     <font>
-      <sz val="11.0"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <color indexed="64"/>
+      <sz val="11.000000"/>
     </font>
     <font>
+      <name val="Calibri"/>
       <b/>
-      <sz val="11.0"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <sz val="11.000000"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <sz val="11.000000"/>
     </font>
     <font>
+      <name val="Calibri"/>
       <color theme="1"/>
-      <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
       <name val="Calibri"/>
+      <sz val="11.000000"/>
     </font>
     <font>
+      <name val="Calibri"/>
       <b/>
-      <sz val="11.0"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <color indexed="64"/>
+      <sz val="11.000000"/>
     </font>
     <font>
-      <sz val="11.0"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
+      <color indexed="64"/>
+      <sz val="11.000000"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <name val="Inherit"/>
       <color rgb="FF212121"/>
-      <name val="Inherit"/>
+      <sz val="11.000000"/>
     </font>
   </fonts>
   <fills count="12">
@@ -1187,7 +1184,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1251,111 +1248,384 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
   <cellXfs count="45">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="1" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf fontId="1" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="9" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="10" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="11" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf fontId="1" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="1" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="1" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="1" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="1" fillId="8" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="1" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="1" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="2" fillId="9" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="2" fillId="10" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="2" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="2" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="2" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="2" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="2" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="2" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="2" fillId="8" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="2" fillId="11" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="2" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="3" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="2" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf fontId="2" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="11" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf fontId="4" fillId="11" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="4" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="3" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf fontId="5" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf fontId="5" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="6" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="7" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf fontId="5" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="5" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="5" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="5" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf fontId="0" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="6" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
+    <xf fontId="7" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Angsana New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1412,7 +1682,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1438,7 +1708,7 @@
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1490,16 +1760,28 @@
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -1515,7 +1797,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1545,50 +1827,49 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
+    <outlinePr applyStyles="0" showOutlineSymbols="1" summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2.0" ySplit="1.0" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="C1" sqref="C1" pane="topRight"/>
-      <selection activeCell="A2" sqref="A2" pane="bottomLeft"/>
-      <selection activeCell="C2" sqref="C2" pane="bottomRight"/>
+    <sheetView workbookViewId="0" zoomScale="100">
+      <pane activePane="bottomRight" state="frozen" topLeftCell="C2" xSplit="2" ySplit="1"/>
+      <selection activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="16.29"/>
-    <col customWidth="1" min="2" max="2" width="19.71"/>
-    <col customWidth="1" min="3" max="3" width="61.14"/>
-    <col customWidth="1" hidden="1" min="4" max="4" width="51.0"/>
+    <col customWidth="1" min="1" max="1" width="16.289999999999999"/>
+    <col customWidth="1" min="2" max="2" width="19.710000000000001"/>
+    <col customWidth="1" min="3" max="3" width="61.140000000000001"/>
+    <col customWidth="1" hidden="1" min="4" max="4" width="51"/>
     <col customWidth="1" hidden="1" min="5" max="5" width="49.57"/>
-    <col customWidth="1" hidden="1" min="6" max="6" width="34.71"/>
+    <col customWidth="1" hidden="1" min="6" max="6" width="34.710000000000001"/>
     <col customWidth="1" hidden="1" min="7" max="7" width="29.57"/>
-    <col customWidth="1" hidden="1" min="8" max="8" width="8.71"/>
-    <col customWidth="1" hidden="1" min="9" max="9" width="23.14"/>
-    <col customWidth="1" min="10" max="10" width="8.71"/>
+    <col customWidth="1" hidden="1" min="8" max="8" width="8.7100000000000009"/>
+    <col customWidth="1" hidden="1" min="9" max="9" width="23.140000000000001"/>
+    <col customWidth="1" min="10" max="10" width="8.7100000000000009"/>
     <col customWidth="1" min="11" max="11" width="14.57"/>
     <col customWidth="1" min="12" max="12" width="19.57"/>
-    <col customWidth="1" min="13" max="13" width="10.71"/>
-    <col customWidth="1" min="14" max="20" width="8.71"/>
+    <col customWidth="1" min="13" max="13" width="10.710000000000001"/>
+    <col customWidth="1" min="14" max="20" width="8.7100000000000009"/>
     <col customWidth="1" min="21" max="21" width="15.43"/>
-    <col customWidth="1" min="22" max="22" width="36.71"/>
-    <col customWidth="1" min="23" max="23" width="8.71"/>
-    <col customWidth="1" min="24" max="24" width="19.71"/>
+    <col customWidth="1" min="22" max="22" width="36.710000000000001"/>
+    <col customWidth="1" min="23" max="23" width="8.7100000000000009"/>
+    <col customWidth="1" min="24" max="24" width="19.710000000000001"/>
     <col customWidth="1" min="25" max="25" width="19.43"/>
-    <col customWidth="1" min="26" max="26" width="12.29"/>
-    <col customWidth="1" min="27" max="27" width="12.86"/>
-    <col customWidth="1" min="28" max="28" width="26.0"/>
-    <col customWidth="1" min="29" max="29" width="12.0"/>
-    <col customWidth="1" min="30" max="30" width="12.14"/>
-    <col customWidth="1" min="31" max="44" width="8.71"/>
+    <col customWidth="1" min="26" max="26" width="12.289999999999999"/>
+    <col customWidth="1" min="27" max="27" width="12.859999999999999"/>
+    <col customWidth="1" min="28" max="28" width="26"/>
+    <col customWidth="1" min="29" max="29" width="12"/>
+    <col customWidth="1" min="30" max="30" width="12.140000000000001"/>
+    <col customWidth="1" min="31" max="44" width="8.7100000000000009"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -6216,32 +6497,34 @@
     <row r="1001" ht="15.75" customHeight="1"/>
     <row r="1002" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup blackAndWhite="0" cellComments="none" copies="1" draft="0" errors="displayed" firstPageNumber="-1" fitToHeight="1" fitToWidth="1" horizontalDpi="600" orientation="landscape" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" usePrinterDefaults="1" verticalDpi="600"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
+    <outlinePr applyStyles="0" showOutlineSymbols="1" summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="21.14"/>
-    <col customWidth="1" min="2" max="2" width="9.71"/>
+    <col customWidth="1" min="1" max="1" width="21.140000000000001"/>
+    <col customWidth="1" min="2" max="2" width="9.7100000000000009"/>
     <col customWidth="1" min="3" max="3" width="29.57"/>
-    <col customWidth="1" min="4" max="4" width="27.71"/>
-    <col customWidth="1" min="5" max="6" width="26.71"/>
-    <col customWidth="1" min="7" max="7" width="39.29"/>
+    <col customWidth="1" min="4" max="4" width="27.710000000000001"/>
+    <col customWidth="1" min="5" max="6" width="26.710000000000001"/>
+    <col customWidth="1" min="7" max="7" width="39.289999999999999"/>
     <col customWidth="1" min="8" max="13" width="7.71"/>
-    <col customWidth="1" min="14" max="26" width="15.14"/>
+    <col customWidth="1" min="14" max="26" width="15.140000000000001"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -7887,28 +8170,30 @@
     <row r="997" ht="15.75" customHeight="1"/>
     <row r="998" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup blackAndWhite="0" cellComments="none" copies="1" draft="0" errors="displayed" firstPageNumber="-1" fitToHeight="1" fitToWidth="1" horizontalDpi="600" orientation="landscape" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" usePrinterDefaults="1" verticalDpi="600"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
+    <outlinePr applyStyles="0" showOutlineSymbols="1" summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15"/>
   <cols>
     <col customWidth="1" min="1" max="2" width="7.71"/>
-    <col customWidth="1" min="3" max="3" width="20.0"/>
+    <col customWidth="1" min="3" max="3" width="20"/>
     <col customWidth="1" min="4" max="15" width="7.71"/>
-    <col customWidth="1" min="16" max="26" width="15.14"/>
+    <col customWidth="1" min="16" max="26" width="15.140000000000001"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -7959,8 +8244,8 @@
         <v>366</v>
       </c>
       <c r="C2" s="44" t="str">
-        <f>TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2021-08-17_21-23</v>
+        <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
+        <v xml:space="preserve">2022-02-25 15-20</v>
       </c>
       <c r="D2" s="36" t="s">
         <v>367</v>
@@ -14877,9 +15162,9 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup blackAndWhite="0" cellComments="none" copies="1" draft="0" errors="displayed" firstPageNumber="-1" fitToHeight="1" fitToWidth="1" horizontalDpi="600" orientation="landscape" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" usePrinterDefaults="1" verticalDpi="600"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/config/covid-19/forms/contact/person-edit.xlsx
+++ b/config/covid-19/forms/contact/person-edit.xlsx
@@ -1,21 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\apoorva\cht-core\config\covid-19\forms\contact\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6900A20-E1EA-4AAD-A668-047B9EA53CC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="survey" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="choices" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="settings" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="survey" sheetId="1" r:id="rId1"/>
+    <sheet name="choices" sheetId="2" r:id="rId2"/>
+    <sheet name="settings" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="369">
   <si>
     <t>type</t>
   </si>
@@ -113,7 +131,7 @@
     <t>notes</t>
   </si>
   <si>
-    <t xml:space="preserve">begin group</t>
+    <t>begin group</t>
   </si>
   <si>
     <t>inputs</t>
@@ -131,58 +149,58 @@
     <t>contact_id</t>
   </si>
   <si>
-    <t xml:space="preserve">Contact ID of the logged in user</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mawasiliano ya mtumizi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">लग इन गरेको प्रयोगकर्ताको सम्पर्क ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifiant de l'utilisateur</t>
+    <t>Contact ID of the logged in user</t>
+  </si>
+  <si>
+    <t>Mawasiliano ya mtumizi</t>
+  </si>
+  <si>
+    <t>लग इन गरेको प्रयोगकर्ताको सम्पर्क ID</t>
+  </si>
+  <si>
+    <t>Identifiant de l'utilisateur</t>
   </si>
   <si>
     <t>facility_id</t>
   </si>
   <si>
-    <t xml:space="preserve">Place ID of the logged in user</t>
-  </si>
-  <si>
-    <t xml:space="preserve">लॉग इन यूज़र के स्थान का ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID Tempat dari login user</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mahali ya kitambulisho ya Mtumizi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">लग इन गरेको प्रयोगकर्ताको स्थानको ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifiant du centre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name of the logged in user</t>
-  </si>
-  <si>
-    <t xml:space="preserve">लॉग इन यूज़र का नाम</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nama dari login user</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jina la mtumizi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">लग इन गरेको प्रयोगकर्ताको नाम</t>
+    <t>Place ID of the logged in user</t>
+  </si>
+  <si>
+    <t>लॉग इन यूज़र के स्थान का ID</t>
+  </si>
+  <si>
+    <t>ID Tempat dari login user</t>
+  </si>
+  <si>
+    <t>Mahali ya kitambulisho ya Mtumizi</t>
+  </si>
+  <si>
+    <t>लग इन गरेको प्रयोगकर्ताको स्थानको ID</t>
+  </si>
+  <si>
+    <t>Identifiant du centre</t>
+  </si>
+  <si>
+    <t>Name of the logged in user</t>
+  </si>
+  <si>
+    <t>लॉग इन यूज़र का नाम</t>
+  </si>
+  <si>
+    <t>Nama dari login user</t>
+  </si>
+  <si>
+    <t>Jina la mtumizi</t>
+  </si>
+  <si>
+    <t>लग इन गरेको प्रयोगकर्ताको नाम</t>
   </si>
   <si>
     <t>Nom</t>
   </si>
   <si>
-    <t xml:space="preserve">end group</t>
+    <t>end group</t>
   </si>
   <si>
     <t>init</t>
@@ -191,7 +209,7 @@
     <t>field-list</t>
   </si>
   <si>
-    <t xml:space="preserve">Cannot be inside the person group without having all fields saved to person. And needs separate db-objects because cannot have one that handles the different place types</t>
+    <t>Cannot be inside the person group without having all fields saved to person. And needs separate db-objects because cannot have one that handles the different place types</t>
   </si>
   <si>
     <t>calculate</t>
@@ -203,7 +221,7 @@
     <t>../../person/name</t>
   </si>
   <si>
-    <t xml:space="preserve">Copy to access from within note</t>
+    <t>Copy to access from within note</t>
   </si>
   <si>
     <t>person_place_name</t>
@@ -215,13 +233,10 @@
     <t>person_parent</t>
   </si>
   <si>
-    <t xml:space="preserve">Current place</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Place actuelle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">db-object hidden</t>
+    <t>Current place</t>
+  </si>
+  <si>
+    <t>Place actuelle</t>
   </si>
   <si>
     <t>yes</t>
@@ -233,7 +248,7 @@
     <t>hidden</t>
   </si>
   <si>
-    <t xml:space="preserve">Indirection required to be able to change the db field accordingly</t>
+    <t>Indirection required to be able to change the db field accordingly</t>
   </si>
   <si>
     <t>note</t>
@@ -242,169 +257,154 @@
     <t>note_place</t>
   </si>
   <si>
-    <t xml:space="preserve">${person_name}&amp;nbsp;currently belongs to **${person_place_name}**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${person_name}&amp;nbsp;अब **${person_place_name}** में है</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${person_name}&amp;nbsp;milik **${person_place_name}**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${person_name}&amp;nbsp;Ni wa **${person_place_name}**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${person_name}&amp;nbsp; हाल यो  **${person_place_name}**सँग छ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${person_name}&amp;nbsp;appartient à **${person_place_name}**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select_one yes_no</t>
+    <t>${person_name}&amp;nbsp;currently belongs to **${person_place_name}**</t>
+  </si>
+  <si>
+    <t>${person_name}&amp;nbsp;अब **${person_place_name}** में है</t>
+  </si>
+  <si>
+    <t>${person_name}&amp;nbsp;milik **${person_place_name}**</t>
+  </si>
+  <si>
+    <t>${person_name}&amp;nbsp;Ni wa **${person_place_name}**</t>
+  </si>
+  <si>
+    <t>${person_name}&amp;nbsp; हाल यो  **${person_place_name}**सँग छ</t>
+  </si>
+  <si>
+    <t>${person_name}&amp;nbsp;appartient à **${person_place_name}**</t>
+  </si>
+  <si>
+    <t>select_one yes_no</t>
   </si>
   <si>
     <t>change_parent</t>
   </si>
   <si>
-    <t xml:space="preserve">Would you like to move them to another place?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">क्या आप इस व्यक्ति को दूसरे स्थान पर ले जाना चाहेंगे?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apakah Anda ingin memindahkan mereka ke tempat lain?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ungependa kuwahamisha mahali pengine?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">के तपाई यस व्यक्तिलाई कुनै अन्य स्थानमा लैजान चाहनुहुन्छ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Voulez-vous déplacer cette personne vers une autre place ?</t>
-  </si>
-  <si>
-    <t>horizontal-compact</t>
+    <t>Would you like to move them to another place?</t>
+  </si>
+  <si>
+    <t>क्या आप इस व्यक्ति को दूसरे स्थान पर ले जाना चाहेंगे?</t>
+  </si>
+  <si>
+    <t>Apakah Anda ingin memindahkan mereka ke tempat lain?</t>
+  </si>
+  <si>
+    <t>Ungependa kuwahamisha mahali pengine?</t>
+  </si>
+  <si>
+    <t>के तपाई यस व्यक्तिलाई कुनै अन्य स्थानमा लैजान चाहनुहुन्छ?</t>
+  </si>
+  <si>
+    <t>Voulez-vous déplacer cette personne vers une autre place ?</t>
   </si>
   <si>
     <t>false</t>
   </si>
   <si>
-    <t xml:space="preserve">select_one place_type</t>
+    <t>select_one place_type</t>
   </si>
   <si>
     <t>edited_place_type</t>
   </si>
   <si>
-    <t xml:space="preserve">Search for place by</t>
-  </si>
-  <si>
-    <t xml:space="preserve">जगह की खोज</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cari tempat oleh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tafuta mahali kwa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">स्थान को खोजी</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rechercher par type de place</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selected(${change_parent}, 'true')</t>
-  </si>
-  <si>
-    <t>db:district_hospital</t>
+    <t>Search for place by</t>
+  </si>
+  <si>
+    <t>जगह की खोज</t>
+  </si>
+  <si>
+    <t>Cari tempat oleh</t>
+  </si>
+  <si>
+    <t>Tafuta mahali kwa</t>
+  </si>
+  <si>
+    <t>स्थान को खोजी</t>
+  </si>
+  <si>
+    <t>Rechercher par type de place</t>
+  </si>
+  <si>
+    <t>selected(${change_parent}, 'true')</t>
   </si>
   <si>
     <t>id_district_hospital</t>
   </si>
   <si>
-    <t xml:space="preserve">Select health facillity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">जिला अस्पताल चुनें</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pilih Rumah Sakit kabupaten</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chagua hospitali ya wilaya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">जिल्ला अस्पताल रोज्नुहोस्</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Choisissez le district</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selected(${change_parent}, 'true') and selected(${edited_place_type}, 'district_hospital')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">db-object bind-id-only</t>
-  </si>
-  <si>
-    <t xml:space="preserve">District Hospital</t>
-  </si>
-  <si>
-    <t>db:health_center</t>
+    <t>Select health facillity</t>
+  </si>
+  <si>
+    <t>जिला अस्पताल चुनें</t>
+  </si>
+  <si>
+    <t>Pilih Rumah Sakit kabupaten</t>
+  </si>
+  <si>
+    <t>Chagua hospitali ya wilaya</t>
+  </si>
+  <si>
+    <t>जिल्ला अस्पताल रोज्नुहोस्</t>
+  </si>
+  <si>
+    <t>Choisissez le district</t>
+  </si>
+  <si>
+    <t>selected(${change_parent}, 'true') and selected(${edited_place_type}, 'district_hospital')</t>
+  </si>
+  <si>
+    <t>District Hospital</t>
   </si>
   <si>
     <t>id_health_center</t>
   </si>
   <si>
-    <t xml:space="preserve">Select area</t>
-  </si>
-  <si>
-    <t xml:space="preserve">स्वास्थ्य केंद्र चुनें</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pilih Fasilitas Kesehatan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chagua kituo cha afya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">स्वास्थ्य संस्था रोज्नुहोस्</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Choisissez le centre de santé</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selected(${change_parent}, 'true') and selected(${edited_place_type}, 'health_center')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Health Center</t>
-  </si>
-  <si>
-    <t>db:clinic</t>
+    <t>Select area</t>
+  </si>
+  <si>
+    <t>स्वास्थ्य केंद्र चुनें</t>
+  </si>
+  <si>
+    <t>Pilih Fasilitas Kesehatan</t>
+  </si>
+  <si>
+    <t>Chagua kituo cha afya</t>
+  </si>
+  <si>
+    <t>स्वास्थ्य संस्था रोज्नुहोस्</t>
+  </si>
+  <si>
+    <t>Choisissez le centre de santé</t>
+  </si>
+  <si>
+    <t>selected(${change_parent}, 'true') and selected(${edited_place_type}, 'health_center')</t>
+  </si>
+  <si>
+    <t>Health Center</t>
   </si>
   <si>
     <t>id_clinic</t>
   </si>
   <si>
-    <t xml:space="preserve">Select household</t>
-  </si>
-  <si>
-    <t xml:space="preserve">अस्पताल चुनें</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pilih Klinik</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chagua kliniki</t>
-  </si>
-  <si>
-    <t xml:space="preserve">क्लिनिक रोज्नुहोस्</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Choisissez la zone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selected(${change_parent}, 'true') and selected(${edited_place_type}, 'clinic')</t>
+    <t>Select household</t>
+  </si>
+  <si>
+    <t>अस्पताल चुनें</t>
+  </si>
+  <si>
+    <t>Pilih Klinik</t>
+  </si>
+  <si>
+    <t>Chagua kliniki</t>
+  </si>
+  <si>
+    <t>क्लिनिक रोज्नुहोस्</t>
+  </si>
+  <si>
+    <t>Choisissez la zone</t>
+  </si>
+  <si>
+    <t>selected(${change_parent}, 'true') and selected(${edited_place_type}, 'clinic')</t>
   </si>
   <si>
     <t>Clinic</t>
@@ -413,43 +413,43 @@
     <t>person</t>
   </si>
   <si>
-    <t xml:space="preserve">Edit person</t>
-  </si>
-  <si>
-    <t xml:space="preserve">व्यक्ति बदलें</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mengedit Orang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Badilisha maelezo ya mtu</t>
+    <t>Edit person</t>
+  </si>
+  <si>
+    <t>व्यक्ति बदलें</t>
+  </si>
+  <si>
+    <t>Mengedit Orang</t>
+  </si>
+  <si>
+    <t>Badilisha maelezo ya mtu</t>
   </si>
   <si>
     <t xml:space="preserve">ब्यक्ति सम्पादन </t>
   </si>
   <si>
-    <t xml:space="preserve">Modifier personne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Upload script will move group to just beneath inputs in data model. Otherwise person is not properly created.</t>
+    <t>Modifier personne</t>
+  </si>
+  <si>
+    <t>Upload script will move group to just beneath inputs in data model. Otherwise person is not properly created.</t>
   </si>
   <si>
     <t>parent</t>
   </si>
   <si>
-    <t xml:space="preserve">coalesce(coalesce(coalesce(${id_district_hospital}, ${id_health_center}), ${id_clinic}),${parent})</t>
+    <t>coalesce(coalesce(coalesce(${id_district_hospital}, ${id_health_center}), ${id_clinic}),${parent})</t>
   </si>
   <si>
     <t>_id</t>
   </si>
   <si>
-    <t xml:space="preserve">Cannot change</t>
+    <t>Cannot change</t>
   </si>
   <si>
     <t>first_name</t>
   </si>
   <si>
-    <t xml:space="preserve">First name</t>
+    <t>First name</t>
   </si>
   <si>
     <t>last_name</t>
@@ -458,28 +458,28 @@
     <t xml:space="preserve">Last name </t>
   </si>
   <si>
-    <t xml:space="preserve">concat(${first_name}, ' ', ${last_name})</t>
+    <t>concat(${first_name}, ' ', ${last_name})</t>
   </si>
   <si>
     <t>date_of_birth</t>
   </si>
   <si>
-    <t xml:space="preserve">Date of birth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">जन्म की तारीख</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tanggal Lahir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tarehe ya Kuzaliwa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">जन्म मिती</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date de naissance</t>
+    <t>Date of birth</t>
+  </si>
+  <si>
+    <t>जन्म की तारीख</t>
+  </si>
+  <si>
+    <t>Tanggal Lahir</t>
+  </si>
+  <si>
+    <t>Tarehe ya Kuzaliwa</t>
+  </si>
+  <si>
+    <t>जन्म मिती</t>
+  </si>
+  <si>
+    <t>Date de naissance</t>
   </si>
   <si>
     <t>../ephemeral_dob/dob_iso</t>
@@ -488,7 +488,7 @@
     <t>date_of_birth_method</t>
   </si>
   <si>
-    <t xml:space="preserve">Method to select date of birth</t>
+    <t>Method to select date of birth</t>
   </si>
   <si>
     <t>../ephemeral_dob/dob_method</t>
@@ -509,13 +509,13 @@
     <t>not(selected(../dob_method,'approx'))</t>
   </si>
   <si>
-    <t xml:space="preserve">floor(decimal-date-time(.)) &lt;= floor(decimal-date-time(today()))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date must be before today</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date of Birth</t>
+    <t>floor(decimal-date-time(.)) &lt;= floor(decimal-date-time(today()))</t>
+  </si>
+  <si>
+    <t>Date must be before today</t>
+  </si>
+  <si>
+    <t>Date of Birth</t>
   </si>
   <si>
     <t>age_label</t>
@@ -536,10 +536,10 @@
     <t>Years</t>
   </si>
   <si>
-    <t xml:space="preserve">. &gt;= 0 and . &lt;= 130</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Age must be between 0 and 130</t>
+    <t>. &gt;= 0 and . &lt;= 130</t>
+  </si>
+  <si>
+    <t>Age must be between 0 and 130</t>
   </si>
   <si>
     <t>age_months</t>
@@ -548,13 +548,13 @@
     <t>Months</t>
   </si>
   <si>
-    <t xml:space="preserve">. &gt;= 0 and . &lt;= 11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Months must between 0 and 11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select_multiple select_dob_method</t>
+    <t>. &gt;= 0 and . &lt;= 11</t>
+  </si>
+  <si>
+    <t>Months must between 0 and 11</t>
+  </si>
+  <si>
+    <t>select_multiple select_dob_method</t>
   </si>
   <si>
     <t>dob_method</t>
@@ -563,31 +563,28 @@
     <t>DELETE_THIS_LINE</t>
   </si>
   <si>
-    <t>horizontal</t>
-  </si>
-  <si>
     <t>ephemeral_months</t>
   </si>
   <si>
-    <t xml:space="preserve">if(format-date-time(today(),"%m") - coalesce(../age_months, 0) &lt; 0, format-date-time(today(),"%m") - coalesce(../age_months, 0) + 12, format-date-time(today(),"%m") - coalesce(../age_months, 0))</t>
+    <t>if(format-date-time(today(),"%m") - coalesce(../age_months, 0) &lt; 0, format-date-time(today(),"%m") - coalesce(../age_months, 0) + 12, format-date-time(today(),"%m") - coalesce(../age_months, 0))</t>
   </si>
   <si>
     <t>ephemeral_years</t>
   </si>
   <si>
-    <t xml:space="preserve">if(format-date-time(today(),"%m") - coalesce(../age_months, 0) &lt; 0, format-date-time(today(),"%Y") - ../age_years - 1, format-date-time(today(),"%Y") -../age_years)</t>
+    <t>if(format-date-time(today(),"%m") - coalesce(../age_months, 0) &lt; 0, format-date-time(today(),"%Y") - ../age_years - 1, format-date-time(today(),"%Y") -../age_years)</t>
   </si>
   <si>
     <t>dob_approx</t>
   </si>
   <si>
-    <t xml:space="preserve">concat(string(${ephemeral_years}),'-',if(${ephemeral_months}&lt;10, concat('0',string(${ephemeral_months})), ${ephemeral_months}),'-',string(format-date-time(today(), "%d")))</t>
+    <t>concat(string(${ephemeral_years}),'-',if(${ephemeral_months}&lt;10, concat('0',string(${ephemeral_months})), ${ephemeral_months}),'-',string(format-date-time(today(), "%d")))</t>
   </si>
   <si>
     <t>dob_raw</t>
   </si>
   <si>
-    <t xml:space="preserve">if(not(selected( ../dob_method,'approx')), 
+    <t>if(not(selected( ../dob_method,'approx')), 
 ../dob_calendar,
 ../dob_approx)</t>
   </si>
@@ -601,7 +598,7 @@
     <t>dob_debug</t>
   </si>
   <si>
-    <t xml:space="preserve">Months: ${ephemeral_months}
+    <t>Months: ${ephemeral_months}
 Year: ${ephemeral_years}
 DOB Approx: ${dob_approx}
 DOB Calendar: ${dob_calendar}
@@ -614,16 +611,16 @@
     <t>phone</t>
   </si>
   <si>
-    <t xml:space="preserve">Phone number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">फोन नंबर</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nomor Telepon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Namba ya simu</t>
+    <t>Phone number</t>
+  </si>
+  <si>
+    <t>फोन नंबर</t>
+  </si>
+  <si>
+    <t>Nomor Telepon</t>
+  </si>
+  <si>
+    <t>Namba ya simu</t>
   </si>
   <si>
     <t xml:space="preserve">फोन नम्बर </t>
@@ -632,37 +629,37 @@
     <t>Téléphone</t>
   </si>
   <si>
-    <t xml:space="preserve">Please enter a valid local number, or use the standard international format, which includes a plus sign (+) and country code. For example: +13125551211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">कृपया एक सही स्थानीय नंबर दर्ज करें, या मानक अंतरराष्ट्रीय प्रारूप का उपयोग करें, जिसमें एक प्लस साइन (+) और देश कोड शामिल है। उदाहरण के लिए: +13125551211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Veuillez entrer un numéro local valide ou utiliser le format international standard, qui comprend un signe plus (+) et le code du pays. Par exemple: +13125551211</t>
+    <t>Please enter a valid local number, or use the standard international format, which includes a plus sign (+) and country code. For example: +13125551211</t>
+  </si>
+  <si>
+    <t>कृपया एक सही स्थानीय नंबर दर्ज करें, या मानक अंतरराष्ट्रीय प्रारूप का उपयोग करें, जिसमें एक प्लस साइन (+) और देश कोड शामिल है। उदाहरण के लिए: +13125551211</t>
+  </si>
+  <si>
+    <t>Veuillez entrer un numéro local valide ou utiliser le format international standard, qui comprend un signe plus (+) et le code du pays. Par exemple: +13125551211</t>
   </si>
   <si>
     <t>phone_alternate</t>
   </si>
   <si>
-    <t xml:space="preserve">Alternate phone number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">अन्य फोन नंबर</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nomor Telepon Alternatif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Namba nyingine ya simu</t>
+    <t>Alternate phone number</t>
+  </si>
+  <si>
+    <t>अन्य फोन नंबर</t>
+  </si>
+  <si>
+    <t>Nomor Telepon Alternatif</t>
+  </si>
+  <si>
+    <t>Namba nyingine ya simu</t>
   </si>
   <si>
     <t xml:space="preserve">अन्य फोन नम्बर </t>
   </si>
   <si>
-    <t xml:space="preserve">Téléphone alternatif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select_one male_female</t>
+    <t>Téléphone alternatif</t>
+  </si>
+  <si>
+    <t>select_one male_female</t>
   </si>
   <si>
     <t>sex</t>
@@ -674,7 +671,7 @@
     <t>लिंग</t>
   </si>
   <si>
-    <t xml:space="preserve">Jenis kelamin</t>
+    <t>Jenis kelamin</t>
   </si>
   <si>
     <t>Jinsia</t>
@@ -689,7 +686,7 @@
     <t>Address</t>
   </si>
   <si>
-    <t xml:space="preserve">select_one roles</t>
+    <t>select_one roles</t>
   </si>
   <si>
     <t>role</t>
@@ -713,46 +710,46 @@
     <t>role_other</t>
   </si>
   <si>
-    <t xml:space="preserve">Specify other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">अन्य का उल्‍लेख करें</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tentukan lainnya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fafanua nyingine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">अन्य उल्लेख गर्नुहोस्</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Autre rôle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selected( ${role},'other')</t>
+    <t>Specify other</t>
+  </si>
+  <si>
+    <t>अन्य का उल्‍लेख करें</t>
+  </si>
+  <si>
+    <t>Tentukan lainnya</t>
+  </si>
+  <si>
+    <t>Fafanua nyingine</t>
+  </si>
+  <si>
+    <t>अन्य उल्लेख गर्नुहोस्</t>
+  </si>
+  <si>
+    <t>Autre rôle</t>
+  </si>
+  <si>
+    <t>selected( ${role},'other')</t>
   </si>
   <si>
     <t>external_id</t>
   </si>
   <si>
-    <t xml:space="preserve">External ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">बाहरी ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eksternal ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kitambulisho ya nje</t>
-  </si>
-  <si>
-    <t xml:space="preserve">बहिरी ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifiant externe</t>
+    <t>External ID</t>
+  </si>
+  <si>
+    <t>बाहरी ID</t>
+  </si>
+  <si>
+    <t>Eksternal ID</t>
+  </si>
+  <si>
+    <t>Kitambulisho ya nje</t>
+  </si>
+  <si>
+    <t>बहिरी ID</t>
+  </si>
+  <si>
+    <t>Identifiant externe</t>
   </si>
   <si>
     <t>Notes</t>
@@ -938,22 +935,22 @@
     <t>approx</t>
   </si>
   <si>
-    <t xml:space="preserve">Date unknown</t>
+    <t>Date unknown</t>
   </si>
   <si>
     <t xml:space="preserve">जन्म की तारीख का पता नहीं </t>
   </si>
   <si>
-    <t xml:space="preserve">Tanggal tidak diketahui lahir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tarehe haijulikani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">जन्म मिती थाहा नभएको</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date de naissance inconnue</t>
+    <t>Tanggal tidak diketahui lahir</t>
+  </si>
+  <si>
+    <t>Tarehe haijulikani</t>
+  </si>
+  <si>
+    <t>जन्म मिती थाहा नभएको</t>
+  </si>
+  <si>
+    <t>Date de naissance inconnue</t>
   </si>
   <si>
     <t>roles</t>
@@ -965,16 +962,16 @@
     <t>CHW</t>
   </si>
   <si>
-    <t xml:space="preserve">सामुदायिक स्वास्थ्य कर्मी</t>
+    <t>सामुदायिक स्वास्थ्य कर्मी</t>
   </si>
   <si>
     <t>Kader</t>
   </si>
   <si>
-    <t xml:space="preserve">Mhudumu wa afya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">महिला स्वास्थ्य स्वयम् सेविका</t>
+    <t>Mhudumu wa afya</t>
+  </si>
+  <si>
+    <t>महिला स्वास्थ्य स्वयम् सेविका</t>
   </si>
   <si>
     <t>ASC</t>
@@ -983,22 +980,22 @@
     <t>chw_supervisor</t>
   </si>
   <si>
-    <t xml:space="preserve">CHW Supervisor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">सामुदायिक स्वास्थ्य कर्मी के मैनेजर</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kader Pengawas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mkuu wa wahudumu wa afya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">महिला स्वास्थ्य स्वयम् सेविकाको सुपरभाइजर</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Superviseur ASC</t>
+    <t>CHW Supervisor</t>
+  </si>
+  <si>
+    <t>सामुदायिक स्वास्थ्य कर्मी के मैनेजर</t>
+  </si>
+  <si>
+    <t>Kader Pengawas</t>
+  </si>
+  <si>
+    <t>Mkuu wa wahudumu wa afya</t>
+  </si>
+  <si>
+    <t>महिला स्वास्थ्य स्वयम् सेविकाको सुपरभाइजर</t>
+  </si>
+  <si>
+    <t>Superviseur ASC</t>
   </si>
   <si>
     <t>patient</t>
@@ -1043,7 +1040,7 @@
     <t>district_hospital</t>
   </si>
   <si>
-    <t xml:space="preserve">Health Facility</t>
+    <t>Health Facility</t>
   </si>
   <si>
     <t>ज़िला</t>
@@ -1067,19 +1064,19 @@
     <t>Area</t>
   </si>
   <si>
-    <t xml:space="preserve">स्वास्थ्य केंद्र</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fasilitas Kesehatan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kituo cha afya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">स्वास्थ्य केन्द्र</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Centre de santé</t>
+    <t>स्वास्थ्य केंद्र</t>
+  </si>
+  <si>
+    <t>Fasilitas Kesehatan</t>
+  </si>
+  <si>
+    <t>kituo cha afya</t>
+  </si>
+  <si>
+    <t>स्वास्थ्य केन्द्र</t>
+  </si>
+  <si>
+    <t>Centre de santé</t>
   </si>
   <si>
     <t>clinic</t>
@@ -1118,7 +1115,7 @@
     <t>default_language</t>
   </si>
   <si>
-    <t xml:space="preserve">Edit Person</t>
+    <t>Edit Person</t>
   </si>
   <si>
     <t>contact:person:edit</t>
@@ -1131,52 +1128,71 @@
   </si>
   <si>
     <t>en</t>
+  </si>
+  <si>
+    <t>select-contact hidden</t>
+  </si>
+  <si>
+    <t>select-contact type-district_hospital bind-id-only</t>
+  </si>
+  <si>
+    <t>select-contact type-health_center bind-id-only</t>
+  </si>
+  <si>
+    <t>select-contact type-clinic bind-id-only</t>
+  </si>
+  <si>
+    <t>columns-pack</t>
+  </si>
+  <si>
+    <t>columns</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8">
     <font>
+      <sz val="11"/>
+      <color indexed="64"/>
       <name val="Calibri"/>
-      <color indexed="64"/>
-      <sz val="11.000000"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <b/>
-      <color theme="1"/>
-      <sz val="11.000000"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <color theme="1"/>
-      <sz val="11.000000"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <color theme="1"/>
     </font>
     <font>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.000000"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="64"/>
       <name val="Calibri"/>
-      <b/>
-      <color indexed="64"/>
-      <sz val="11.000000"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="64"/>
       <name val="Arial"/>
-      <color indexed="64"/>
-      <sz val="11.000000"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF212121"/>
       <name val="Inherit"/>
-      <color rgb="FF212121"/>
-      <sz val="11.000000"/>
     </font>
   </fonts>
   <fills count="12">
@@ -1257,76 +1273,76 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="45">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="1" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="1" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="1" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="1" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="1" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="1" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="1" fillId="8" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="1" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="1" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="2" fillId="9" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="2" fillId="10" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="2" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="2" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="2" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="2" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="2" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="2" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="2" fillId="8" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="2" fillId="11" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="2" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="3" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="2" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf fontId="2" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf fontId="4" fillId="11" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="4" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="3" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="5" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="5" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="5" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="5" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="5" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="5" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="6" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="7" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1337,295 +1353,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Angsana New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Cordia New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1828,51 +1564,55 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
-    <outlinePr applyStyles="0" showOutlineSymbols="1" summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:AR1002"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="C2" xSplit="2" ySplit="1"/>
-      <selection activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="J17" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="C2" sqref="C2"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="16.289999999999999"/>
-    <col customWidth="1" min="2" max="2" width="19.710000000000001"/>
-    <col customWidth="1" min="3" max="3" width="61.140000000000001"/>
-    <col customWidth="1" hidden="1" min="4" max="4" width="51"/>
-    <col customWidth="1" hidden="1" min="5" max="5" width="49.57"/>
-    <col customWidth="1" hidden="1" min="6" max="6" width="34.710000000000001"/>
-    <col customWidth="1" hidden="1" min="7" max="7" width="29.57"/>
-    <col customWidth="1" hidden="1" min="8" max="8" width="8.7100000000000009"/>
-    <col customWidth="1" hidden="1" min="9" max="9" width="23.140000000000001"/>
-    <col customWidth="1" min="10" max="10" width="8.7100000000000009"/>
-    <col customWidth="1" min="11" max="11" width="14.57"/>
-    <col customWidth="1" min="12" max="12" width="19.57"/>
-    <col customWidth="1" min="13" max="13" width="10.710000000000001"/>
-    <col customWidth="1" min="14" max="20" width="8.7100000000000009"/>
-    <col customWidth="1" min="21" max="21" width="15.43"/>
-    <col customWidth="1" min="22" max="22" width="36.710000000000001"/>
-    <col customWidth="1" min="23" max="23" width="8.7100000000000009"/>
-    <col customWidth="1" min="24" max="24" width="19.710000000000001"/>
-    <col customWidth="1" min="25" max="25" width="19.43"/>
-    <col customWidth="1" min="26" max="26" width="12.289999999999999"/>
-    <col customWidth="1" min="27" max="27" width="12.859999999999999"/>
-    <col customWidth="1" min="28" max="28" width="26"/>
-    <col customWidth="1" min="29" max="29" width="12"/>
-    <col customWidth="1" min="30" max="30" width="12.140000000000001"/>
-    <col customWidth="1" min="31" max="44" width="8.7100000000000009"/>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" customWidth="1"/>
+    <col min="3" max="3" width="61.109375" customWidth="1"/>
+    <col min="4" max="4" width="51" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="49.5546875" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="34.6640625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="29.5546875" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="23.109375" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" customWidth="1"/>
+    <col min="11" max="11" width="14.5546875" customWidth="1"/>
+    <col min="12" max="12" width="19.5546875" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" customWidth="1"/>
+    <col min="14" max="20" width="8.6640625" customWidth="1"/>
+    <col min="21" max="21" width="15.44140625" customWidth="1"/>
+    <col min="22" max="22" width="36.6640625" customWidth="1"/>
+    <col min="23" max="23" width="8.6640625" customWidth="1"/>
+    <col min="24" max="24" width="19.6640625" customWidth="1"/>
+    <col min="25" max="25" width="19.44140625" customWidth="1"/>
+    <col min="26" max="26" width="12.33203125" customWidth="1"/>
+    <col min="27" max="27" width="12.88671875" customWidth="1"/>
+    <col min="28" max="28" width="26" customWidth="1"/>
+    <col min="29" max="29" width="12" customWidth="1"/>
+    <col min="30" max="30" width="12.109375" customWidth="1"/>
+    <col min="31" max="44" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
+    <row r="1" spans="1:44" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1982,7 +1722,7 @@
       <c r="AQ1" s="11"/>
       <c r="AR1" s="11"/>
     </row>
-    <row r="2" ht="14.25" customHeight="1">
+    <row r="2" spans="1:44" ht="14.25" customHeight="1">
       <c r="A2" s="12" t="s">
         <v>32</v>
       </c>
@@ -2046,7 +1786,7 @@
       <c r="AQ2" s="13"/>
       <c r="AR2" s="13"/>
     </row>
-    <row r="3" ht="14.25" customHeight="1">
+    <row r="3" spans="1:44" ht="14.25" customHeight="1">
       <c r="A3" s="12" t="s">
         <v>32</v>
       </c>
@@ -2108,7 +1848,7 @@
       <c r="AQ3" s="13"/>
       <c r="AR3" s="13"/>
     </row>
-    <row r="4" ht="14.25" customHeight="1">
+    <row r="4" spans="1:44" ht="14.25" customHeight="1">
       <c r="A4" s="12" t="s">
         <v>36</v>
       </c>
@@ -2170,7 +1910,7 @@
       <c r="AQ4" s="13"/>
       <c r="AR4" s="13"/>
     </row>
-    <row r="5" ht="14.25" customHeight="1">
+    <row r="5" spans="1:44" ht="14.25" customHeight="1">
       <c r="A5" s="12" t="s">
         <v>36</v>
       </c>
@@ -2232,7 +1972,7 @@
       <c r="AQ5" s="13"/>
       <c r="AR5" s="13"/>
     </row>
-    <row r="6" ht="14.25" customHeight="1">
+    <row r="6" spans="1:44" ht="14.25" customHeight="1">
       <c r="A6" s="12" t="s">
         <v>36</v>
       </c>
@@ -2294,7 +2034,7 @@
       <c r="AQ6" s="13"/>
       <c r="AR6" s="13"/>
     </row>
-    <row r="7" ht="14.25" customHeight="1">
+    <row r="7" spans="1:44" ht="14.25" customHeight="1">
       <c r="A7" s="12" t="s">
         <v>55</v>
       </c>
@@ -2342,7 +2082,7 @@
       <c r="AQ7" s="13"/>
       <c r="AR7" s="13"/>
     </row>
-    <row r="8" ht="14.25" customHeight="1">
+    <row r="8" spans="1:44" ht="14.25" customHeight="1">
       <c r="A8" s="12" t="s">
         <v>55</v>
       </c>
@@ -2390,7 +2130,7 @@
       <c r="AQ8" s="13"/>
       <c r="AR8" s="13"/>
     </row>
-    <row r="9" ht="14.25" customHeight="1">
+    <row r="9" spans="1:44" ht="14.25" customHeight="1">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -2436,7 +2176,7 @@
       <c r="AQ9" s="11"/>
       <c r="AR9" s="11"/>
     </row>
-    <row r="10" ht="14.25" customHeight="1">
+    <row r="10" spans="1:44" ht="14.25" customHeight="1">
       <c r="A10" s="21" t="s">
         <v>32</v>
       </c>
@@ -2502,7 +2242,7 @@
       <c r="AQ10" s="19"/>
       <c r="AR10" s="19"/>
     </row>
-    <row r="11" ht="14.25" customHeight="1">
+    <row r="11" spans="1:44" ht="14.25" customHeight="1">
       <c r="A11" s="21" t="s">
         <v>59</v>
       </c>
@@ -2556,7 +2296,7 @@
       <c r="AQ11" s="19"/>
       <c r="AR11" s="19"/>
     </row>
-    <row r="12" ht="14.25" customHeight="1">
+    <row r="12" spans="1:44" ht="14.25" customHeight="1">
       <c r="A12" s="21" t="s">
         <v>59</v>
       </c>
@@ -2608,7 +2348,7 @@
       <c r="AQ12" s="19"/>
       <c r="AR12" s="19"/>
     </row>
-    <row r="13" ht="14.25" customHeight="1">
+    <row r="13" spans="1:44" ht="14.25" customHeight="1">
       <c r="A13" s="21" t="s">
         <v>36</v>
       </c>
@@ -2629,10 +2369,10 @@
       <c r="J13" s="19"/>
       <c r="K13" s="19"/>
       <c r="L13" s="19" t="s">
+        <v>363</v>
+      </c>
+      <c r="M13" s="19" t="s">
         <v>68</v>
-      </c>
-      <c r="M13" s="19" t="s">
-        <v>69</v>
       </c>
       <c r="N13" s="19"/>
       <c r="O13" s="19"/>
@@ -2643,7 +2383,7 @@
       <c r="T13" s="19"/>
       <c r="U13" s="19"/>
       <c r="V13" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="W13" s="19"/>
       <c r="X13" s="19"/>
@@ -2668,7 +2408,7 @@
       <c r="AQ13" s="19"/>
       <c r="AR13" s="19"/>
     </row>
-    <row r="14" ht="14.25" customHeight="1">
+    <row r="14" spans="1:44" ht="14.25" customHeight="1">
       <c r="A14" s="21" t="s">
         <v>36</v>
       </c>
@@ -2697,7 +2437,7 @@
       <c r="J14" s="19"/>
       <c r="K14" s="19"/>
       <c r="L14" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M14" s="19"/>
       <c r="N14" s="19"/>
@@ -2719,7 +2459,7 @@
       <c r="AD14" s="19"/>
       <c r="AE14" s="19"/>
       <c r="AF14" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AG14" s="19"/>
       <c r="AH14" s="19"/>
@@ -2734,7 +2474,7 @@
       <c r="AQ14" s="19"/>
       <c r="AR14" s="19"/>
     </row>
-    <row r="15" ht="14.25" customHeight="1">
+    <row r="15" spans="1:44" ht="14.25" customHeight="1">
       <c r="A15" s="21" t="s">
         <v>36</v>
       </c>
@@ -2763,7 +2503,7 @@
       <c r="J15" s="19"/>
       <c r="K15" s="19"/>
       <c r="L15" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M15" s="19"/>
       <c r="N15" s="19"/>
@@ -2798,31 +2538,31 @@
       <c r="AQ15" s="19"/>
       <c r="AR15" s="19"/>
     </row>
-    <row r="16" ht="14.25" customHeight="1">
+    <row r="16" spans="1:44" ht="14.25" customHeight="1">
       <c r="A16" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="C16" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="D16" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="E16" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="F16" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="F16" s="19" t="s">
+      <c r="G16" s="19" t="s">
         <v>78</v>
-      </c>
-      <c r="G16" s="19" t="s">
-        <v>79</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J16" s="19"/>
       <c r="K16" s="19"/>
@@ -2860,38 +2600,38 @@
       <c r="AQ16" s="19"/>
       <c r="AR16" s="19"/>
     </row>
-    <row r="17" ht="14.25" customHeight="1">
+    <row r="17" spans="1:44" ht="14.25" customHeight="1">
       <c r="A17" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="C17" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="D17" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="E17" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="F17" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="F17" s="19" t="s">
+      <c r="G17" s="19" t="s">
         <v>86</v>
-      </c>
-      <c r="G17" s="19" t="s">
-        <v>87</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J17" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K17" s="19"/>
       <c r="L17" s="19" t="s">
-        <v>89</v>
+        <v>367</v>
       </c>
       <c r="M17" s="19"/>
       <c r="N17" s="19"/>
@@ -2912,7 +2652,7 @@
       <c r="AC17" s="19"/>
       <c r="AD17" s="19"/>
       <c r="AE17" s="19" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AF17" s="19"/>
       <c r="AG17" s="19"/>
@@ -2928,40 +2668,40 @@
       <c r="AQ17" s="19"/>
       <c r="AR17" s="19"/>
     </row>
-    <row r="18" ht="14.25" customHeight="1">
+    <row r="18" spans="1:44" ht="14.25" customHeight="1">
       <c r="A18" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="C18" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="D18" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="E18" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="F18" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="E18" s="19" t="s">
+      <c r="G18" s="19" t="s">
         <v>95</v>
-      </c>
-      <c r="F18" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="G18" s="19" t="s">
-        <v>97</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J18" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K18" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L18" s="19" t="s">
-        <v>89</v>
+        <v>367</v>
       </c>
       <c r="M18" s="19"/>
       <c r="N18" s="19"/>
@@ -2996,40 +2736,40 @@
       <c r="AQ18" s="19"/>
       <c r="AR18" s="19"/>
     </row>
-    <row r="19" ht="14.25" customHeight="1">
+    <row r="19" spans="1:44" ht="14.25" customHeight="1">
       <c r="A19" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="D19" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="E19" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="F19" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="D19" s="19" t="s">
+      <c r="G19" s="19" t="s">
         <v>103</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="F19" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="G19" s="19" t="s">
-        <v>106</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="J19" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K19" s="19" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="L19" s="19" t="s">
-        <v>109</v>
+        <v>364</v>
       </c>
       <c r="M19" s="19"/>
       <c r="N19" s="19"/>
@@ -3051,7 +2791,7 @@
       <c r="AD19" s="19"/>
       <c r="AE19" s="19"/>
       <c r="AF19" s="19" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="AG19" s="19"/>
       <c r="AH19" s="19"/>
@@ -3066,40 +2806,40 @@
       <c r="AQ19" s="19"/>
       <c r="AR19" s="19"/>
     </row>
-    <row r="20" ht="14.25" customHeight="1">
+    <row r="20" spans="1:44" ht="14.25" customHeight="1">
       <c r="A20" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="F20" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="G20" s="19" t="s">
         <v>112</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="F20" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="G20" s="19" t="s">
-        <v>117</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="J20" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K20" s="19" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="L20" s="19" t="s">
-        <v>109</v>
+        <v>365</v>
       </c>
       <c r="M20" s="19"/>
       <c r="N20" s="19"/>
@@ -3121,7 +2861,7 @@
       <c r="AD20" s="19"/>
       <c r="AE20" s="19"/>
       <c r="AF20" s="19" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="AG20" s="19"/>
       <c r="AH20" s="19"/>
@@ -3136,40 +2876,40 @@
       <c r="AQ20" s="19"/>
       <c r="AR20" s="19"/>
     </row>
-    <row r="21" ht="14.25" customHeight="1">
+    <row r="21" spans="1:44" ht="14.25" customHeight="1">
       <c r="A21" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="G21" s="19" t="s">
         <v>121</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="E21" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="F21" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="G21" s="19" t="s">
-        <v>127</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="J21" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K21" s="19" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="L21" s="19" t="s">
-        <v>109</v>
+        <v>366</v>
       </c>
       <c r="M21" s="19"/>
       <c r="N21" s="19"/>
@@ -3191,7 +2931,7 @@
       <c r="AD21" s="19"/>
       <c r="AE21" s="19"/>
       <c r="AF21" s="19" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="AG21" s="19"/>
       <c r="AH21" s="19"/>
@@ -3206,7 +2946,7 @@
       <c r="AQ21" s="19"/>
       <c r="AR21" s="19"/>
     </row>
-    <row r="22" ht="14.25" customHeight="1">
+    <row r="22" spans="1:44" ht="14.25" customHeight="1">
       <c r="A22" s="21" t="s">
         <v>55</v>
       </c>
@@ -3254,7 +2994,7 @@
       <c r="AQ22" s="23"/>
       <c r="AR22" s="23"/>
     </row>
-    <row r="23" ht="14.25" customHeight="1">
+    <row r="23" spans="1:44" ht="14.25" customHeight="1">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -3300,31 +3040,31 @@
       <c r="AQ23" s="11"/>
       <c r="AR23" s="11"/>
     </row>
-    <row r="24" ht="14.25" customHeight="1">
+    <row r="24" spans="1:44" ht="14.25" customHeight="1">
       <c r="A24" s="21" t="s">
         <v>32</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="E24" s="19" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="G24" s="19" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="J24" s="19"/>
       <c r="K24" s="19"/>
@@ -3351,7 +3091,7 @@
       <c r="AD24" s="19"/>
       <c r="AE24" s="19"/>
       <c r="AF24" s="19" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="AG24" s="19"/>
       <c r="AH24" s="19"/>
@@ -3366,12 +3106,12 @@
       <c r="AQ24" s="19"/>
       <c r="AR24" s="19"/>
     </row>
-    <row r="25" ht="14.25" customHeight="1">
+    <row r="25" spans="1:44" ht="14.25" customHeight="1">
       <c r="A25" s="21" t="s">
         <v>59</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C25" s="19"/>
       <c r="D25" s="19"/>
@@ -3393,7 +3133,7 @@
       <c r="T25" s="19"/>
       <c r="U25" s="19"/>
       <c r="V25" s="19" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="W25" s="23"/>
       <c r="X25" s="19"/>
@@ -3418,12 +3158,12 @@
       <c r="AQ25" s="23"/>
       <c r="AR25" s="23"/>
     </row>
-    <row r="26" ht="14.25" customHeight="1">
+    <row r="26" spans="1:44" ht="14.25" customHeight="1">
       <c r="A26" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C26" s="19" t="s">
         <v>34</v>
@@ -3448,7 +3188,7 @@
       <c r="K26" s="19"/>
       <c r="L26" s="19"/>
       <c r="M26" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N26" s="19"/>
       <c r="O26" s="19"/>
@@ -3469,7 +3209,7 @@
       <c r="AD26" s="19"/>
       <c r="AE26" s="19"/>
       <c r="AF26" s="19" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="AG26" s="19"/>
       <c r="AH26" s="19"/>
@@ -3484,9 +3224,9 @@
       <c r="AQ26" s="19"/>
       <c r="AR26" s="19"/>
     </row>
-    <row r="27" ht="14.25" customHeight="1">
+    <row r="27" spans="1:44" ht="14.25" customHeight="1">
       <c r="A27" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B27" s="21" t="s">
         <v>0</v>
@@ -3514,7 +3254,7 @@
       <c r="K27" s="19"/>
       <c r="L27" s="19"/>
       <c r="M27" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N27" s="19"/>
       <c r="O27" s="19"/>
@@ -3534,10 +3274,10 @@
       <c r="AC27" s="19"/>
       <c r="AD27" s="19"/>
       <c r="AE27" s="19" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="AF27" s="19" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="AG27" s="19"/>
       <c r="AH27" s="19"/>
@@ -3552,15 +3292,15 @@
       <c r="AQ27" s="19"/>
       <c r="AR27" s="19"/>
     </row>
-    <row r="28" ht="14.25" customHeight="1">
+    <row r="28" spans="1:44" ht="14.25" customHeight="1">
       <c r="A28" s="26" t="s">
         <v>36</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D28" s="27"/>
       <c r="E28" s="27"/>
@@ -3569,12 +3309,12 @@
       <c r="H28" s="27"/>
       <c r="I28" s="27"/>
       <c r="J28" s="27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K28" s="27"/>
       <c r="L28" s="27"/>
       <c r="M28" s="27"/>
-      <c r="N28" s="27"/>
+      <c r="N28" s="22"/>
       <c r="O28" s="27"/>
       <c r="P28" s="27"/>
       <c r="Q28" s="27"/>
@@ -3606,15 +3346,15 @@
       <c r="AQ28" s="27"/>
       <c r="AR28" s="27"/>
     </row>
-    <row r="29" ht="14.25" customHeight="1">
+    <row r="29" spans="1:44" ht="14.25" customHeight="1">
       <c r="A29" s="26" t="s">
         <v>36</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C29" s="27" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D29" s="27"/>
       <c r="E29" s="27"/>
@@ -3623,7 +3363,7 @@
       <c r="H29" s="27"/>
       <c r="I29" s="27"/>
       <c r="J29" s="27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K29" s="27"/>
       <c r="L29" s="27"/>
@@ -3660,7 +3400,7 @@
       <c r="AQ29" s="27"/>
       <c r="AR29" s="27"/>
     </row>
-    <row r="30" ht="14.25" customHeight="1">
+    <row r="30" spans="1:44" ht="14.25" customHeight="1">
       <c r="A30" s="26" t="s">
         <v>59</v>
       </c>
@@ -3677,7 +3417,7 @@
       <c r="J30" s="27"/>
       <c r="K30" s="27"/>
       <c r="L30" s="27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M30" s="27"/>
       <c r="N30" s="27"/>
@@ -3689,7 +3429,7 @@
       <c r="T30" s="27"/>
       <c r="U30" s="27"/>
       <c r="V30" s="27" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="W30" s="27"/>
       <c r="X30" s="27"/>
@@ -3714,39 +3454,39 @@
       <c r="AQ30" s="27"/>
       <c r="AR30" s="27"/>
     </row>
-    <row r="31" ht="14.25" customHeight="1">
+    <row r="31" spans="1:44" ht="14.25" customHeight="1">
       <c r="A31" s="21" t="s">
         <v>59</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="E31" s="19" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="F31" s="19" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="G31" s="19" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="J31" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K31" s="19"/>
       <c r="L31" s="19"/>
       <c r="M31" s="19"/>
-      <c r="N31" s="19"/>
+      <c r="N31" s="27"/>
       <c r="O31" s="19"/>
       <c r="P31" s="19"/>
       <c r="Q31" s="19"/>
@@ -3755,7 +3495,7 @@
       <c r="T31" s="19"/>
       <c r="U31" s="19"/>
       <c r="V31" s="19" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="W31" s="19"/>
       <c r="X31" s="19"/>
@@ -3780,15 +3520,15 @@
       <c r="AQ31" s="19"/>
       <c r="AR31" s="19"/>
     </row>
-    <row r="32" ht="14.25" customHeight="1">
+    <row r="32" spans="1:44" ht="14.25" customHeight="1">
       <c r="A32" s="21" t="s">
         <v>59</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D32" s="19"/>
       <c r="E32" s="19"/>
@@ -3809,7 +3549,7 @@
       <c r="T32" s="19"/>
       <c r="U32" s="19"/>
       <c r="V32" s="19" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="W32" s="19"/>
       <c r="X32" s="19"/>
@@ -3834,12 +3574,12 @@
       <c r="AQ32" s="19"/>
       <c r="AR32" s="19"/>
     </row>
-    <row r="33" ht="14.25" customHeight="1">
+    <row r="33" spans="1:44" ht="14.25" customHeight="1">
       <c r="A33" s="21" t="s">
         <v>32</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C33" s="19" t="s">
         <v>34</v>
@@ -3886,15 +3626,15 @@
       <c r="AQ33" s="19"/>
       <c r="AR33" s="19"/>
     </row>
-    <row r="34" ht="14.25" customHeight="1">
+    <row r="34" spans="1:44" ht="14.25" customHeight="1">
       <c r="A34" s="21" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D34" s="19"/>
       <c r="E34" s="19"/>
@@ -3903,18 +3643,18 @@
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
       <c r="J34" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K34" s="19" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="L34" s="19"/>
       <c r="M34" s="19"/>
       <c r="N34" s="19" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="O34" s="19" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="P34" s="19"/>
       <c r="Q34" s="19"/>
@@ -3925,7 +3665,7 @@
       <c r="V34" s="19"/>
       <c r="W34" s="19"/>
       <c r="X34" s="19" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="Y34" s="19"/>
       <c r="Z34" s="19"/>
@@ -3948,15 +3688,15 @@
       <c r="AQ34" s="19"/>
       <c r="AR34" s="19"/>
     </row>
-    <row r="35" ht="14.25" customHeight="1">
+    <row r="35" spans="1:44" ht="14.25" customHeight="1">
       <c r="A35" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D35" s="19"/>
       <c r="E35" s="19"/>
@@ -3966,7 +3706,7 @@
       <c r="I35" s="19"/>
       <c r="J35" s="19"/>
       <c r="K35" s="19" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="L35" s="19"/>
       <c r="M35" s="19"/>
@@ -4002,15 +3742,15 @@
       <c r="AQ35" s="19"/>
       <c r="AR35" s="19"/>
     </row>
-    <row r="36" ht="14.25" customHeight="1">
+    <row r="36" spans="1:44" ht="14.25" customHeight="1">
       <c r="A36" s="21" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B36" s="21" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D36" s="19"/>
       <c r="E36" s="19"/>
@@ -4019,18 +3759,18 @@
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
       <c r="J36" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K36" s="19" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="L36" s="19"/>
       <c r="M36" s="19"/>
       <c r="N36" s="19" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="O36" s="19" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="P36" s="19"/>
       <c r="Q36" s="19"/>
@@ -4062,15 +3802,15 @@
       <c r="AQ36" s="19"/>
       <c r="AR36" s="19"/>
     </row>
-    <row r="37" ht="14.25" customHeight="1">
+    <row r="37" spans="1:44" ht="14.25" customHeight="1">
       <c r="A37" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="B37" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="C37" s="19" t="s">
         <v>170</v>
-      </c>
-      <c r="B37" s="21" t="s">
-        <v>175</v>
-      </c>
-      <c r="C37" s="19" t="s">
-        <v>176</v>
       </c>
       <c r="D37" s="19"/>
       <c r="E37" s="19"/>
@@ -4080,15 +3820,15 @@
       <c r="I37" s="19"/>
       <c r="J37" s="19"/>
       <c r="K37" s="19" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="L37" s="19"/>
       <c r="M37" s="19"/>
       <c r="N37" s="19" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="O37" s="19" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="P37" s="19"/>
       <c r="Q37" s="19"/>
@@ -4120,15 +3860,15 @@
       <c r="AQ37" s="19"/>
       <c r="AR37" s="19"/>
     </row>
-    <row r="38" ht="14.25" customHeight="1">
+    <row r="38" spans="1:44" ht="14.25" customHeight="1">
       <c r="A38" s="21" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D38" s="19"/>
       <c r="E38" s="19"/>
@@ -4139,7 +3879,7 @@
       <c r="J38" s="19"/>
       <c r="K38" s="19"/>
       <c r="L38" s="19" t="s">
-        <v>182</v>
+        <v>368</v>
       </c>
       <c r="M38" s="19"/>
       <c r="N38" s="19"/>
@@ -4174,12 +3914,12 @@
       <c r="AQ38" s="19"/>
       <c r="AR38" s="19"/>
     </row>
-    <row r="39" ht="14.25" customHeight="1">
+    <row r="39" spans="1:44" ht="14.25" customHeight="1">
       <c r="A39" s="21" t="s">
         <v>59</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C39" s="19"/>
       <c r="D39" s="19"/>
@@ -4201,7 +3941,7 @@
       <c r="T39" s="19"/>
       <c r="U39" s="19"/>
       <c r="V39" s="19" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="W39" s="19"/>
       <c r="X39" s="19"/>
@@ -4226,12 +3966,12 @@
       <c r="AQ39" s="19"/>
       <c r="AR39" s="19"/>
     </row>
-    <row r="40" ht="14.25" customHeight="1">
+    <row r="40" spans="1:44" ht="14.25" customHeight="1">
       <c r="A40" s="21" t="s">
         <v>59</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="C40" s="19"/>
       <c r="D40" s="19"/>
@@ -4253,7 +3993,7 @@
       <c r="T40" s="19"/>
       <c r="U40" s="19"/>
       <c r="V40" s="19" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="W40" s="19"/>
       <c r="X40" s="19"/>
@@ -4278,12 +4018,12 @@
       <c r="AQ40" s="19"/>
       <c r="AR40" s="19"/>
     </row>
-    <row r="41" ht="14.25" customHeight="1">
+    <row r="41" spans="1:44" ht="14.25" customHeight="1">
       <c r="A41" s="21" t="s">
         <v>59</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C41" s="19"/>
       <c r="D41" s="19"/>
@@ -4305,7 +4045,7 @@
       <c r="T41" s="19"/>
       <c r="U41" s="19"/>
       <c r="V41" s="19" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="W41" s="19"/>
       <c r="X41" s="19"/>
@@ -4330,12 +4070,12 @@
       <c r="AQ41" s="19"/>
       <c r="AR41" s="19"/>
     </row>
-    <row r="42" ht="14.25" customHeight="1">
+    <row r="42" spans="1:44" ht="14.25" customHeight="1">
       <c r="A42" s="21" t="s">
         <v>59</v>
       </c>
       <c r="B42" s="21" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="C42" s="19"/>
       <c r="D42" s="19"/>
@@ -4357,7 +4097,7 @@
       <c r="T42" s="19"/>
       <c r="U42" s="19"/>
       <c r="V42" s="19" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="W42" s="19"/>
       <c r="X42" s="19"/>
@@ -4382,12 +4122,12 @@
       <c r="AQ42" s="19"/>
       <c r="AR42" s="19"/>
     </row>
-    <row r="43" ht="14.25" customHeight="1">
+    <row r="43" spans="1:44" ht="14.25" customHeight="1">
       <c r="A43" s="21" t="s">
         <v>59</v>
       </c>
       <c r="B43" s="21" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C43" s="19"/>
       <c r="D43" s="19"/>
@@ -4409,7 +4149,7 @@
       <c r="T43" s="19"/>
       <c r="U43" s="19"/>
       <c r="V43" s="19" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="W43" s="19"/>
       <c r="X43" s="19"/>
@@ -4434,15 +4174,15 @@
       <c r="AQ43" s="19"/>
       <c r="AR43" s="19"/>
     </row>
-    <row r="44" ht="14.25" customHeight="1">
+    <row r="44" spans="1:44" ht="14.25" customHeight="1">
       <c r="A44" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B44" s="21" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="D44" s="19"/>
       <c r="E44" s="19"/>
@@ -4488,7 +4228,7 @@
       <c r="AQ44" s="19"/>
       <c r="AR44" s="19"/>
     </row>
-    <row r="45" ht="14.25" customHeight="1">
+    <row r="45" spans="1:44" ht="14.25" customHeight="1">
       <c r="A45" s="21" t="s">
         <v>55</v>
       </c>
@@ -4536,31 +4276,31 @@
       <c r="AQ45" s="19"/>
       <c r="AR45" s="19"/>
     </row>
-    <row r="46" ht="14.25" customHeight="1">
+    <row r="46" spans="1:44" ht="14.25" customHeight="1">
       <c r="A46" s="21" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="B46" s="21" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="C46" s="22" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="D46" s="19" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="E46" s="19" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="F46" s="19" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="G46" s="19" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="J46" s="19"/>
       <c r="K46" s="19"/>
@@ -4570,17 +4310,17 @@
         <v>1</v>
       </c>
       <c r="O46" s="22" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="P46" s="22" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="Q46" s="19"/>
       <c r="R46" s="19"/>
       <c r="S46" s="19"/>
       <c r="T46" s="19"/>
       <c r="U46" s="22" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="V46" s="19"/>
       <c r="W46" s="19"/>
@@ -4606,31 +4346,31 @@
       <c r="AQ46" s="19"/>
       <c r="AR46" s="19"/>
     </row>
-    <row r="47" ht="14.25" customHeight="1">
+    <row r="47" spans="1:44" ht="14.25" customHeight="1">
       <c r="A47" s="21" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="B47" s="21" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="C47" s="22" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="D47" s="19" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="E47" s="19" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="F47" s="19" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="G47" s="19" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="J47" s="19"/>
       <c r="K47" s="19"/>
@@ -4640,17 +4380,17 @@
         <v>1</v>
       </c>
       <c r="O47" s="22" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="P47" s="22" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="Q47" s="19"/>
       <c r="R47" s="19"/>
       <c r="S47" s="19"/>
       <c r="T47" s="19"/>
       <c r="U47" s="22" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="V47" s="19"/>
       <c r="W47" s="19"/>
@@ -4676,36 +4416,36 @@
       <c r="AQ47" s="19"/>
       <c r="AR47" s="19"/>
     </row>
-    <row r="48" ht="14.25" customHeight="1">
+    <row r="48" spans="1:44" ht="14.25" customHeight="1">
       <c r="A48" s="21" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="B48" s="21" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="D48" s="19" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="E48" s="19" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="F48" s="19" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="G48" s="19" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="J48" s="19"/>
       <c r="K48" s="19"/>
       <c r="L48" s="19" t="s">
-        <v>182</v>
+        <v>368</v>
       </c>
       <c r="M48" s="19"/>
       <c r="N48" s="19"/>
@@ -4740,15 +4480,15 @@
       <c r="AQ48" s="19"/>
       <c r="AR48" s="19"/>
     </row>
-    <row r="49" ht="14.25" customHeight="1">
+    <row r="49" spans="1:44" ht="14.25" customHeight="1">
       <c r="A49" s="26" t="s">
         <v>36</v>
       </c>
       <c r="B49" s="26" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C49" s="27" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="D49" s="27"/>
       <c r="E49" s="27"/>
@@ -4792,34 +4532,34 @@
       <c r="AQ49" s="27"/>
       <c r="AR49" s="27"/>
     </row>
-    <row r="50" ht="14.25" customHeight="1">
+    <row r="50" spans="1:44" ht="14.25" customHeight="1">
       <c r="A50" s="21" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="B50" s="21" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C50" s="19" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="D50" s="19" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="E50" s="19" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="F50" s="19" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="G50" s="19" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="J50" s="28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K50" s="19"/>
       <c r="L50" s="19"/>
@@ -4856,37 +4596,37 @@
       <c r="AQ50" s="23"/>
       <c r="AR50" s="23"/>
     </row>
-    <row r="51" ht="14.25" customHeight="1">
+    <row r="51" spans="1:44" ht="14.25" customHeight="1">
       <c r="A51" s="21" t="s">
         <v>36</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="C51" s="19" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="D51" s="19" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="E51" s="19" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="F51" s="19" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="G51" s="19" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="J51" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K51" s="19" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="L51" s="19"/>
       <c r="M51" s="19"/>
@@ -4922,31 +4662,31 @@
       <c r="AQ51" s="23"/>
       <c r="AR51" s="23"/>
     </row>
-    <row r="52" ht="14.25" customHeight="1">
+    <row r="52" spans="1:44" ht="14.25" customHeight="1">
       <c r="A52" s="21" t="s">
         <v>36</v>
       </c>
       <c r="B52" s="21" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C52" s="19" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="D52" s="19" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="E52" s="19" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="F52" s="19" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="G52" s="19" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="J52" s="19"/>
       <c r="K52" s="19"/>
@@ -4984,7 +4724,7 @@
       <c r="AQ52" s="23"/>
       <c r="AR52" s="23"/>
     </row>
-    <row r="53" ht="14.25" customHeight="1">
+    <row r="53" spans="1:44" ht="14.25" customHeight="1">
       <c r="A53" s="21" t="s">
         <v>36</v>
       </c>
@@ -4992,28 +4732,28 @@
         <v>31</v>
       </c>
       <c r="C53" s="19" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="D53" s="19" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="E53" s="19" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="F53" s="19" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="G53" s="19" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="J53" s="19"/>
       <c r="K53" s="19"/>
       <c r="L53" s="19" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="M53" s="19"/>
       <c r="N53" s="19"/>
@@ -5048,12 +4788,12 @@
       <c r="AQ53" s="23"/>
       <c r="AR53" s="23"/>
     </row>
-    <row r="54" ht="14.25" customHeight="1">
+    <row r="54" spans="1:44" ht="14.25" customHeight="1">
       <c r="A54" s="21" t="s">
         <v>32</v>
       </c>
       <c r="B54" s="21" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="C54" s="19" t="s">
         <v>34</v>
@@ -5077,7 +4817,7 @@
       <c r="J54" s="19"/>
       <c r="K54" s="19"/>
       <c r="L54" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M54" s="19"/>
       <c r="N54" s="19"/>
@@ -5112,12 +4852,12 @@
       <c r="AQ54" s="23"/>
       <c r="AR54" s="23"/>
     </row>
-    <row r="55" ht="14.25" customHeight="1">
+    <row r="55" spans="1:44" ht="14.25" customHeight="1">
       <c r="A55" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B55" s="21" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="C55" s="19" t="s">
         <v>34</v>
@@ -5142,7 +4882,7 @@
       <c r="K55" s="19"/>
       <c r="L55" s="19"/>
       <c r="M55" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N55" s="19"/>
       <c r="O55" s="19"/>
@@ -5176,12 +4916,12 @@
       <c r="AQ55" s="19"/>
       <c r="AR55" s="19"/>
     </row>
-    <row r="56" ht="14.25" customHeight="1">
+    <row r="56" spans="1:44" ht="14.25" customHeight="1">
       <c r="A56" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B56" s="21" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="C56" s="19" t="s">
         <v>34</v>
@@ -5206,7 +4946,7 @@
       <c r="K56" s="19"/>
       <c r="L56" s="19"/>
       <c r="M56" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N56" s="19"/>
       <c r="O56" s="19"/>
@@ -5240,12 +4980,12 @@
       <c r="AQ56" s="19"/>
       <c r="AR56" s="19"/>
     </row>
-    <row r="57" ht="14.25" customHeight="1">
+    <row r="57" spans="1:44" ht="14.25" customHeight="1">
       <c r="A57" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B57" s="21" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="C57" s="19" t="s">
         <v>34</v>
@@ -5270,7 +5010,7 @@
       <c r="K57" s="19"/>
       <c r="L57" s="19"/>
       <c r="M57" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N57" s="19"/>
       <c r="O57" s="19"/>
@@ -5304,12 +5044,12 @@
       <c r="AQ57" s="19"/>
       <c r="AR57" s="19"/>
     </row>
-    <row r="58" ht="14.25" customHeight="1">
+    <row r="58" spans="1:44" ht="14.25" customHeight="1">
       <c r="A58" s="21" t="s">
         <v>59</v>
       </c>
       <c r="B58" s="21" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="C58" s="19"/>
       <c r="D58" s="25"/>
@@ -5331,7 +5071,7 @@
       <c r="T58" s="19"/>
       <c r="U58" s="19"/>
       <c r="V58" s="19" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="W58" s="19"/>
       <c r="X58" s="19"/>
@@ -5356,12 +5096,12 @@
       <c r="AQ58" s="19"/>
       <c r="AR58" s="19"/>
     </row>
-    <row r="59" ht="14.25" customHeight="1">
+    <row r="59" spans="1:44" ht="14.25" customHeight="1">
       <c r="A59" s="21" t="s">
         <v>59</v>
       </c>
       <c r="B59" s="21" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="C59" s="19"/>
       <c r="D59" s="25"/>
@@ -5383,7 +5123,7 @@
       <c r="T59" s="19"/>
       <c r="U59" s="19"/>
       <c r="V59" s="19" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="W59" s="19"/>
       <c r="X59" s="19"/>
@@ -5408,12 +5148,12 @@
       <c r="AQ59" s="19"/>
       <c r="AR59" s="19"/>
     </row>
-    <row r="60" ht="14.25" customHeight="1">
+    <row r="60" spans="1:44" ht="14.25" customHeight="1">
       <c r="A60" s="21" t="s">
         <v>59</v>
       </c>
       <c r="B60" s="21" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="C60" s="19"/>
       <c r="D60" s="19"/>
@@ -5435,7 +5175,7 @@
       <c r="T60" s="19"/>
       <c r="U60" s="19"/>
       <c r="V60" s="19" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="W60" s="19"/>
       <c r="X60" s="19"/>
@@ -5460,7 +5200,7 @@
       <c r="AQ60" s="19"/>
       <c r="AR60" s="19"/>
     </row>
-    <row r="61" ht="14.25" customHeight="1">
+    <row r="61" spans="1:44" ht="14.25" customHeight="1">
       <c r="A61" s="21" t="s">
         <v>55</v>
       </c>
@@ -5508,7 +5248,7 @@
       <c r="AQ61" s="23"/>
       <c r="AR61" s="23"/>
     </row>
-    <row r="62" ht="14.25" customHeight="1">
+    <row r="62" spans="1:44" ht="14.25" customHeight="1">
       <c r="A62" s="21" t="s">
         <v>55</v>
       </c>
@@ -5556,8 +5296,8 @@
       <c r="AQ62" s="23"/>
       <c r="AR62" s="23"/>
     </row>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="63" spans="1:44" ht="15.75" customHeight="1"/>
+    <row r="64" spans="1:44" ht="15.75" customHeight="1"/>
     <row r="65" ht="15.75" customHeight="1"/>
     <row r="66" ht="15.75" customHeight="1"/>
     <row r="67" ht="15.75" customHeight="1"/>
@@ -6497,39 +6237,35 @@
     <row r="1001" ht="15.75" customHeight="1"/>
     <row r="1002" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup blackAndWhite="0" cellComments="none" copies="1" draft="0" errors="displayed" firstPageNumber="-1" fitToHeight="1" fitToWidth="1" horizontalDpi="600" orientation="landscape" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" usePrinterDefaults="1" verticalDpi="600"/>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
-    <outlinePr applyStyles="0" showOutlineSymbols="1" summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="21.140000000000001"/>
-    <col customWidth="1" min="2" max="2" width="9.7100000000000009"/>
-    <col customWidth="1" min="3" max="3" width="29.57"/>
-    <col customWidth="1" min="4" max="4" width="27.710000000000001"/>
-    <col customWidth="1" min="5" max="6" width="26.710000000000001"/>
-    <col customWidth="1" min="7" max="7" width="39.289999999999999"/>
-    <col customWidth="1" min="8" max="13" width="7.71"/>
-    <col customWidth="1" min="14" max="26" width="15.140000000000001"/>
+    <col min="1" max="1" width="21.109375" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" customWidth="1"/>
+    <col min="3" max="3" width="29.5546875" customWidth="1"/>
+    <col min="4" max="4" width="27.6640625" customWidth="1"/>
+    <col min="5" max="6" width="26.6640625" customWidth="1"/>
+    <col min="7" max="7" width="39.33203125" customWidth="1"/>
+    <col min="8" max="13" width="7.6640625" customWidth="1"/>
+    <col min="14" max="26" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
+    <row r="1" spans="1:26" ht="14.25" customHeight="1">
       <c r="A1" s="29" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="B1" s="29" t="s">
         <v>1</v>
@@ -6573,31 +6309,31 @@
       <c r="Y1" s="36"/>
       <c r="Z1" s="36"/>
     </row>
-    <row r="2" ht="14.25" customHeight="1">
+    <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" s="37" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="E2" s="38" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H2" s="18"/>
       <c r="I2" s="19" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="J2" s="36"/>
       <c r="K2" s="36"/>
@@ -6617,31 +6353,31 @@
       <c r="Y2" s="36"/>
       <c r="Z2" s="36"/>
     </row>
-    <row r="3" ht="14.25" customHeight="1">
+    <row r="3" spans="1:26" ht="14.25" customHeight="1">
       <c r="A3" s="37" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="E3" s="38" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="H3" s="18"/>
       <c r="I3" s="19" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="J3" s="36"/>
       <c r="K3" s="36"/>
@@ -6661,31 +6397,31 @@
       <c r="Y3" s="36"/>
       <c r="Z3" s="36"/>
     </row>
-    <row r="4" ht="14.25" customHeight="1">
+    <row r="4" spans="1:26" ht="14.25" customHeight="1">
       <c r="A4" s="37" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="D4" s="39" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="H4" s="18"/>
       <c r="I4" s="19" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="J4" s="36"/>
       <c r="K4" s="36"/>
@@ -6705,31 +6441,31 @@
       <c r="Y4" s="36"/>
       <c r="Z4" s="36"/>
     </row>
-    <row r="5" ht="14.25" customHeight="1">
+    <row r="5" spans="1:26" ht="14.25" customHeight="1">
       <c r="A5" s="37" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="B5" s="37" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="H5" s="18"/>
       <c r="I5" s="19" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="J5" s="36"/>
       <c r="K5" s="36"/>
@@ -6749,31 +6485,31 @@
       <c r="Y5" s="36"/>
       <c r="Z5" s="36"/>
     </row>
-    <row r="6" ht="14.25" customHeight="1">
+    <row r="6" spans="1:26" ht="14.25" customHeight="1">
       <c r="A6" s="37" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="B6" s="37" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="H6" s="18"/>
       <c r="I6" s="19" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="J6" s="36"/>
       <c r="K6" s="36"/>
@@ -6793,31 +6529,31 @@
       <c r="Y6" s="36"/>
       <c r="Z6" s="36"/>
     </row>
-    <row r="7" ht="14.25" customHeight="1">
+    <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" s="37" t="s">
+        <v>283</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>276</v>
+      </c>
+      <c r="C7" s="37" t="s">
         <v>290</v>
       </c>
-      <c r="B7" s="37" t="s">
-        <v>283</v>
-      </c>
-      <c r="C7" s="37" t="s">
-        <v>297</v>
-      </c>
       <c r="D7" s="14" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="H7" s="18"/>
       <c r="I7" s="19" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="J7" s="36"/>
       <c r="K7" s="36"/>
@@ -6837,31 +6573,31 @@
       <c r="Y7" s="36"/>
       <c r="Z7" s="36"/>
     </row>
-    <row r="8" ht="14.25" customHeight="1">
+    <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" s="36" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="C8" s="41" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="H8" s="18"/>
       <c r="I8" s="19" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="J8" s="36"/>
       <c r="K8" s="36"/>
@@ -6881,31 +6617,31 @@
       <c r="Y8" s="36"/>
       <c r="Z8" s="36"/>
     </row>
-    <row r="9" ht="14.25" customHeight="1">
+    <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" s="36" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="B9" s="40" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="C9" s="41" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="H9" s="18"/>
       <c r="I9" s="19" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="J9" s="36"/>
       <c r="K9" s="36"/>
@@ -6925,31 +6661,31 @@
       <c r="Y9" s="36"/>
       <c r="Z9" s="36"/>
     </row>
-    <row r="10" ht="14.25" customHeight="1">
+    <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" s="36" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="B10" s="40" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="C10" s="41" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="H10" s="18"/>
       <c r="I10" s="19" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="J10" s="36"/>
       <c r="K10" s="36"/>
@@ -6969,31 +6705,31 @@
       <c r="Y10" s="36"/>
       <c r="Z10" s="36"/>
     </row>
-    <row r="11" ht="14.25" customHeight="1">
+    <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" s="36" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="H11" s="18"/>
       <c r="I11" s="19" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="J11" s="36"/>
       <c r="K11" s="36"/>
@@ -7013,31 +6749,31 @@
       <c r="Y11" s="36"/>
       <c r="Z11" s="36"/>
     </row>
-    <row r="12" ht="14.25" customHeight="1">
+    <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" s="36" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="C12" s="41" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="H12" s="18"/>
       <c r="I12" s="19" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="J12" s="36"/>
       <c r="K12" s="36"/>
@@ -7057,31 +6793,31 @@
       <c r="Y12" s="36"/>
       <c r="Z12" s="36"/>
     </row>
-    <row r="13" ht="14.25" customHeight="1">
+    <row r="13" spans="1:26" ht="14.25" customHeight="1">
       <c r="A13" s="36" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="C13" s="41" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="H13" s="18"/>
       <c r="I13" s="19" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="J13" s="36"/>
       <c r="K13" s="36"/>
@@ -7101,31 +6837,31 @@
       <c r="Y13" s="36"/>
       <c r="Z13" s="36"/>
     </row>
-    <row r="14" ht="14.25" customHeight="1">
+    <row r="14" spans="1:26" ht="14.25" customHeight="1">
       <c r="A14" s="36" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="C14" s="41" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="H14" s="18"/>
       <c r="I14" s="19" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="J14" s="36"/>
       <c r="K14" s="36"/>
@@ -7145,31 +6881,31 @@
       <c r="Y14" s="36"/>
       <c r="Z14" s="36"/>
     </row>
-    <row r="15" ht="14.25" customHeight="1">
+    <row r="15" spans="1:26" ht="14.25" customHeight="1">
       <c r="A15" s="36" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="D15" s="42" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="H15" s="18"/>
       <c r="I15" s="19" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="J15" s="36"/>
       <c r="K15" s="36"/>
@@ -8170,50 +7906,46 @@
     <row r="997" ht="15.75" customHeight="1"/>
     <row r="998" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup blackAndWhite="0" cellComments="none" copies="1" draft="0" errors="displayed" firstPageNumber="-1" fitToHeight="1" fitToWidth="1" horizontalDpi="600" orientation="landscape" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" usePrinterDefaults="1" verticalDpi="600"/>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
-    <outlinePr applyStyles="0" showOutlineSymbols="1" summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="7.71"/>
-    <col customWidth="1" min="3" max="3" width="20"/>
-    <col customWidth="1" min="4" max="15" width="7.71"/>
-    <col customWidth="1" min="16" max="26" width="15.140000000000001"/>
+    <col min="1" max="2" width="7.6640625" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="15" width="7.6640625" customWidth="1"/>
+    <col min="16" max="26" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
+    <row r="1" spans="1:26" ht="14.25" customHeight="1">
       <c r="A1" s="43" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="B1" s="43" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="C1" s="43" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="D1" s="43" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="E1" s="43" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="F1" s="43" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="G1" s="36"/>
       <c r="H1" s="36"/>
@@ -8236,25 +7968,25 @@
       <c r="Y1" s="36"/>
       <c r="Z1" s="36"/>
     </row>
-    <row r="2" ht="14.25" customHeight="1">
+    <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" s="36" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="C2" s="44" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v xml:space="preserve">2022-02-25 15-20</v>
+        <v>2025-05-01 22-59</v>
       </c>
       <c r="D2" s="36" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="E2" s="36" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="F2" s="36" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="G2" s="36"/>
       <c r="H2" s="36"/>
@@ -8277,7 +8009,7 @@
       <c r="Y2" s="36"/>
       <c r="Z2" s="36"/>
     </row>
-    <row r="3" ht="14.25" customHeight="1">
+    <row r="3" spans="1:26" ht="14.25" customHeight="1">
       <c r="A3" s="36"/>
       <c r="B3" s="36"/>
       <c r="C3" s="36"/>
@@ -8305,7 +8037,7 @@
       <c r="Y3" s="36"/>
       <c r="Z3" s="36"/>
     </row>
-    <row r="4" ht="14.25" customHeight="1">
+    <row r="4" spans="1:26" ht="14.25" customHeight="1">
       <c r="A4" s="36"/>
       <c r="B4" s="36"/>
       <c r="C4" s="36"/>
@@ -8333,7 +8065,7 @@
       <c r="Y4" s="36"/>
       <c r="Z4" s="36"/>
     </row>
-    <row r="5" ht="14.25" customHeight="1">
+    <row r="5" spans="1:26" ht="14.25" customHeight="1">
       <c r="A5" s="36"/>
       <c r="B5" s="36"/>
       <c r="C5" s="36"/>
@@ -8361,7 +8093,7 @@
       <c r="Y5" s="36"/>
       <c r="Z5" s="36"/>
     </row>
-    <row r="6" ht="14.25" customHeight="1">
+    <row r="6" spans="1:26" ht="14.25" customHeight="1">
       <c r="A6" s="36"/>
       <c r="B6" s="36"/>
       <c r="C6" s="36"/>
@@ -8389,7 +8121,7 @@
       <c r="Y6" s="36"/>
       <c r="Z6" s="36"/>
     </row>
-    <row r="7" ht="14.25" customHeight="1">
+    <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" s="36"/>
       <c r="B7" s="36"/>
       <c r="C7" s="36"/>
@@ -8417,7 +8149,7 @@
       <c r="Y7" s="36"/>
       <c r="Z7" s="36"/>
     </row>
-    <row r="8" ht="14.25" customHeight="1">
+    <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" s="36"/>
       <c r="B8" s="36"/>
       <c r="C8" s="36"/>
@@ -8445,7 +8177,7 @@
       <c r="Y8" s="36"/>
       <c r="Z8" s="36"/>
     </row>
-    <row r="9" ht="14.25" customHeight="1">
+    <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" s="36"/>
       <c r="B9" s="36"/>
       <c r="C9" s="36"/>
@@ -8473,7 +8205,7 @@
       <c r="Y9" s="36"/>
       <c r="Z9" s="36"/>
     </row>
-    <row r="10" ht="14.25" customHeight="1">
+    <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" s="36"/>
       <c r="B10" s="36"/>
       <c r="C10" s="36"/>
@@ -8501,7 +8233,7 @@
       <c r="Y10" s="36"/>
       <c r="Z10" s="36"/>
     </row>
-    <row r="11" ht="14.25" customHeight="1">
+    <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" s="36"/>
       <c r="B11" s="36"/>
       <c r="C11" s="36"/>
@@ -8529,7 +8261,7 @@
       <c r="Y11" s="36"/>
       <c r="Z11" s="36"/>
     </row>
-    <row r="12" ht="14.25" customHeight="1">
+    <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" s="36"/>
       <c r="B12" s="36"/>
       <c r="C12" s="36"/>
@@ -8557,7 +8289,7 @@
       <c r="Y12" s="36"/>
       <c r="Z12" s="36"/>
     </row>
-    <row r="13" ht="14.25" customHeight="1">
+    <row r="13" spans="1:26" ht="14.25" customHeight="1">
       <c r="A13" s="36"/>
       <c r="B13" s="36"/>
       <c r="C13" s="36"/>
@@ -8585,7 +8317,7 @@
       <c r="Y13" s="36"/>
       <c r="Z13" s="36"/>
     </row>
-    <row r="14" ht="14.25" customHeight="1">
+    <row r="14" spans="1:26" ht="14.25" customHeight="1">
       <c r="A14" s="36"/>
       <c r="B14" s="36"/>
       <c r="C14" s="36"/>
@@ -8613,7 +8345,7 @@
       <c r="Y14" s="36"/>
       <c r="Z14" s="36"/>
     </row>
-    <row r="15" ht="14.25" customHeight="1">
+    <row r="15" spans="1:26" ht="14.25" customHeight="1">
       <c r="A15" s="36"/>
       <c r="B15" s="36"/>
       <c r="C15" s="36"/>
@@ -8641,7 +8373,7 @@
       <c r="Y15" s="36"/>
       <c r="Z15" s="36"/>
     </row>
-    <row r="16" ht="14.25" customHeight="1">
+    <row r="16" spans="1:26" ht="14.25" customHeight="1">
       <c r="A16" s="36"/>
       <c r="B16" s="36"/>
       <c r="C16" s="36"/>
@@ -8669,7 +8401,7 @@
       <c r="Y16" s="36"/>
       <c r="Z16" s="36"/>
     </row>
-    <row r="17" ht="14.25" customHeight="1">
+    <row r="17" spans="1:26" ht="14.25" customHeight="1">
       <c r="A17" s="36"/>
       <c r="B17" s="36"/>
       <c r="C17" s="36"/>
@@ -8697,7 +8429,7 @@
       <c r="Y17" s="36"/>
       <c r="Z17" s="36"/>
     </row>
-    <row r="18" ht="14.25" customHeight="1">
+    <row r="18" spans="1:26" ht="14.25" customHeight="1">
       <c r="A18" s="36"/>
       <c r="B18" s="36"/>
       <c r="C18" s="36"/>
@@ -8725,7 +8457,7 @@
       <c r="Y18" s="36"/>
       <c r="Z18" s="36"/>
     </row>
-    <row r="19" ht="14.25" customHeight="1">
+    <row r="19" spans="1:26" ht="14.25" customHeight="1">
       <c r="A19" s="36"/>
       <c r="B19" s="36"/>
       <c r="C19" s="36"/>
@@ -8753,7 +8485,7 @@
       <c r="Y19" s="36"/>
       <c r="Z19" s="36"/>
     </row>
-    <row r="20" ht="14.25" customHeight="1">
+    <row r="20" spans="1:26" ht="14.25" customHeight="1">
       <c r="A20" s="36"/>
       <c r="B20" s="36"/>
       <c r="C20" s="36"/>
@@ -8781,7 +8513,7 @@
       <c r="Y20" s="36"/>
       <c r="Z20" s="36"/>
     </row>
-    <row r="21" ht="14.25" customHeight="1">
+    <row r="21" spans="1:26" ht="14.25" customHeight="1">
       <c r="A21" s="36"/>
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
@@ -8809,7 +8541,7 @@
       <c r="Y21" s="36"/>
       <c r="Z21" s="36"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:26" ht="15.75" customHeight="1">
       <c r="A22" s="36"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
@@ -8837,7 +8569,7 @@
       <c r="Y22" s="36"/>
       <c r="Z22" s="36"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:26" ht="15.75" customHeight="1">
       <c r="A23" s="36"/>
       <c r="B23" s="36"/>
       <c r="C23" s="36"/>
@@ -8865,7 +8597,7 @@
       <c r="Y23" s="36"/>
       <c r="Z23" s="36"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:26" ht="15.75" customHeight="1">
       <c r="A24" s="36"/>
       <c r="B24" s="36"/>
       <c r="C24" s="36"/>
@@ -8893,7 +8625,7 @@
       <c r="Y24" s="36"/>
       <c r="Z24" s="36"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:26" ht="15.75" customHeight="1">
       <c r="A25" s="36"/>
       <c r="B25" s="36"/>
       <c r="C25" s="36"/>
@@ -8921,7 +8653,7 @@
       <c r="Y25" s="36"/>
       <c r="Z25" s="36"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:26" ht="15.75" customHeight="1">
       <c r="A26" s="36"/>
       <c r="B26" s="36"/>
       <c r="C26" s="36"/>
@@ -8949,7 +8681,7 @@
       <c r="Y26" s="36"/>
       <c r="Z26" s="36"/>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:26" ht="15.75" customHeight="1">
       <c r="A27" s="36"/>
       <c r="B27" s="36"/>
       <c r="C27" s="36"/>
@@ -8977,7 +8709,7 @@
       <c r="Y27" s="36"/>
       <c r="Z27" s="36"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:26" ht="15.75" customHeight="1">
       <c r="A28" s="36"/>
       <c r="B28" s="36"/>
       <c r="C28" s="36"/>
@@ -9005,7 +8737,7 @@
       <c r="Y28" s="36"/>
       <c r="Z28" s="36"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:26" ht="15.75" customHeight="1">
       <c r="A29" s="36"/>
       <c r="B29" s="36"/>
       <c r="C29" s="36"/>
@@ -9033,7 +8765,7 @@
       <c r="Y29" s="36"/>
       <c r="Z29" s="36"/>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:26" ht="15.75" customHeight="1">
       <c r="A30" s="36"/>
       <c r="B30" s="36"/>
       <c r="C30" s="36"/>
@@ -9061,7 +8793,7 @@
       <c r="Y30" s="36"/>
       <c r="Z30" s="36"/>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:26" ht="15.75" customHeight="1">
       <c r="A31" s="36"/>
       <c r="B31" s="36"/>
       <c r="C31" s="36"/>
@@ -9089,7 +8821,7 @@
       <c r="Y31" s="36"/>
       <c r="Z31" s="36"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:26" ht="15.75" customHeight="1">
       <c r="A32" s="36"/>
       <c r="B32" s="36"/>
       <c r="C32" s="36"/>
@@ -9117,7 +8849,7 @@
       <c r="Y32" s="36"/>
       <c r="Z32" s="36"/>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:26" ht="15.75" customHeight="1">
       <c r="A33" s="36"/>
       <c r="B33" s="36"/>
       <c r="C33" s="36"/>
@@ -9145,7 +8877,7 @@
       <c r="Y33" s="36"/>
       <c r="Z33" s="36"/>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:26" ht="15.75" customHeight="1">
       <c r="A34" s="36"/>
       <c r="B34" s="36"/>
       <c r="C34" s="36"/>
@@ -9173,7 +8905,7 @@
       <c r="Y34" s="36"/>
       <c r="Z34" s="36"/>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:26" ht="15.75" customHeight="1">
       <c r="A35" s="36"/>
       <c r="B35" s="36"/>
       <c r="C35" s="36"/>
@@ -9201,7 +8933,7 @@
       <c r="Y35" s="36"/>
       <c r="Z35" s="36"/>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="1:26" ht="15.75" customHeight="1">
       <c r="A36" s="36"/>
       <c r="B36" s="36"/>
       <c r="C36" s="36"/>
@@ -9229,7 +8961,7 @@
       <c r="Y36" s="36"/>
       <c r="Z36" s="36"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:26" ht="15.75" customHeight="1">
       <c r="A37" s="36"/>
       <c r="B37" s="36"/>
       <c r="C37" s="36"/>
@@ -9257,7 +8989,7 @@
       <c r="Y37" s="36"/>
       <c r="Z37" s="36"/>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:26" ht="15.75" customHeight="1">
       <c r="A38" s="36"/>
       <c r="B38" s="36"/>
       <c r="C38" s="36"/>
@@ -9285,7 +9017,7 @@
       <c r="Y38" s="36"/>
       <c r="Z38" s="36"/>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:26" ht="15.75" customHeight="1">
       <c r="A39" s="36"/>
       <c r="B39" s="36"/>
       <c r="C39" s="36"/>
@@ -9313,7 +9045,7 @@
       <c r="Y39" s="36"/>
       <c r="Z39" s="36"/>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="1:26" ht="15.75" customHeight="1">
       <c r="A40" s="36"/>
       <c r="B40" s="36"/>
       <c r="C40" s="36"/>
@@ -9341,7 +9073,7 @@
       <c r="Y40" s="36"/>
       <c r="Z40" s="36"/>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="1:26" ht="15.75" customHeight="1">
       <c r="A41" s="36"/>
       <c r="B41" s="36"/>
       <c r="C41" s="36"/>
@@ -9369,7 +9101,7 @@
       <c r="Y41" s="36"/>
       <c r="Z41" s="36"/>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="1:26" ht="15.75" customHeight="1">
       <c r="A42" s="36"/>
       <c r="B42" s="36"/>
       <c r="C42" s="36"/>
@@ -9397,7 +9129,7 @@
       <c r="Y42" s="36"/>
       <c r="Z42" s="36"/>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="1:26" ht="15.75" customHeight="1">
       <c r="A43" s="36"/>
       <c r="B43" s="36"/>
       <c r="C43" s="36"/>
@@ -9425,7 +9157,7 @@
       <c r="Y43" s="36"/>
       <c r="Z43" s="36"/>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="1:26" ht="15.75" customHeight="1">
       <c r="A44" s="36"/>
       <c r="B44" s="36"/>
       <c r="C44" s="36"/>
@@ -9453,7 +9185,7 @@
       <c r="Y44" s="36"/>
       <c r="Z44" s="36"/>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="1:26" ht="15.75" customHeight="1">
       <c r="A45" s="36"/>
       <c r="B45" s="36"/>
       <c r="C45" s="36"/>
@@ -9481,7 +9213,7 @@
       <c r="Y45" s="36"/>
       <c r="Z45" s="36"/>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="1:26" ht="15.75" customHeight="1">
       <c r="A46" s="36"/>
       <c r="B46" s="36"/>
       <c r="C46" s="36"/>
@@ -9509,7 +9241,7 @@
       <c r="Y46" s="36"/>
       <c r="Z46" s="36"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="1:26" ht="15.75" customHeight="1">
       <c r="A47" s="36"/>
       <c r="B47" s="36"/>
       <c r="C47" s="36"/>
@@ -9537,7 +9269,7 @@
       <c r="Y47" s="36"/>
       <c r="Z47" s="36"/>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="1:26" ht="15.75" customHeight="1">
       <c r="A48" s="36"/>
       <c r="B48" s="36"/>
       <c r="C48" s="36"/>
@@ -9565,7 +9297,7 @@
       <c r="Y48" s="36"/>
       <c r="Z48" s="36"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="1:26" ht="15.75" customHeight="1">
       <c r="A49" s="36"/>
       <c r="B49" s="36"/>
       <c r="C49" s="36"/>
@@ -9593,7 +9325,7 @@
       <c r="Y49" s="36"/>
       <c r="Z49" s="36"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="1:26" ht="15.75" customHeight="1">
       <c r="A50" s="36"/>
       <c r="B50" s="36"/>
       <c r="C50" s="36"/>
@@ -9621,7 +9353,7 @@
       <c r="Y50" s="36"/>
       <c r="Z50" s="36"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="1:26" ht="15.75" customHeight="1">
       <c r="A51" s="36"/>
       <c r="B51" s="36"/>
       <c r="C51" s="36"/>
@@ -9649,7 +9381,7 @@
       <c r="Y51" s="36"/>
       <c r="Z51" s="36"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="1:26" ht="15.75" customHeight="1">
       <c r="A52" s="36"/>
       <c r="B52" s="36"/>
       <c r="C52" s="36"/>
@@ -9677,7 +9409,7 @@
       <c r="Y52" s="36"/>
       <c r="Z52" s="36"/>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="1:26" ht="15.75" customHeight="1">
       <c r="A53" s="36"/>
       <c r="B53" s="36"/>
       <c r="C53" s="36"/>
@@ -9705,7 +9437,7 @@
       <c r="Y53" s="36"/>
       <c r="Z53" s="36"/>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="1:26" ht="15.75" customHeight="1">
       <c r="A54" s="36"/>
       <c r="B54" s="36"/>
       <c r="C54" s="36"/>
@@ -9733,7 +9465,7 @@
       <c r="Y54" s="36"/>
       <c r="Z54" s="36"/>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="1:26" ht="15.75" customHeight="1">
       <c r="A55" s="36"/>
       <c r="B55" s="36"/>
       <c r="C55" s="36"/>
@@ -9761,7 +9493,7 @@
       <c r="Y55" s="36"/>
       <c r="Z55" s="36"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="1:26" ht="15.75" customHeight="1">
       <c r="A56" s="36"/>
       <c r="B56" s="36"/>
       <c r="C56" s="36"/>
@@ -9789,7 +9521,7 @@
       <c r="Y56" s="36"/>
       <c r="Z56" s="36"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="1:26" ht="15.75" customHeight="1">
       <c r="A57" s="36"/>
       <c r="B57" s="36"/>
       <c r="C57" s="36"/>
@@ -9817,7 +9549,7 @@
       <c r="Y57" s="36"/>
       <c r="Z57" s="36"/>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="1:26" ht="15.75" customHeight="1">
       <c r="A58" s="36"/>
       <c r="B58" s="36"/>
       <c r="C58" s="36"/>
@@ -9845,7 +9577,7 @@
       <c r="Y58" s="36"/>
       <c r="Z58" s="36"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="1:26" ht="15.75" customHeight="1">
       <c r="A59" s="36"/>
       <c r="B59" s="36"/>
       <c r="C59" s="36"/>
@@ -9873,7 +9605,7 @@
       <c r="Y59" s="36"/>
       <c r="Z59" s="36"/>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="1:26" ht="15.75" customHeight="1">
       <c r="A60" s="36"/>
       <c r="B60" s="36"/>
       <c r="C60" s="36"/>
@@ -9901,7 +9633,7 @@
       <c r="Y60" s="36"/>
       <c r="Z60" s="36"/>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="1:26" ht="15.75" customHeight="1">
       <c r="A61" s="36"/>
       <c r="B61" s="36"/>
       <c r="C61" s="36"/>
@@ -9929,7 +9661,7 @@
       <c r="Y61" s="36"/>
       <c r="Z61" s="36"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="1:26" ht="15.75" customHeight="1">
       <c r="A62" s="36"/>
       <c r="B62" s="36"/>
       <c r="C62" s="36"/>
@@ -9957,7 +9689,7 @@
       <c r="Y62" s="36"/>
       <c r="Z62" s="36"/>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="1:26" ht="15.75" customHeight="1">
       <c r="A63" s="36"/>
       <c r="B63" s="36"/>
       <c r="C63" s="36"/>
@@ -9985,7 +9717,7 @@
       <c r="Y63" s="36"/>
       <c r="Z63" s="36"/>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="1:26" ht="15.75" customHeight="1">
       <c r="A64" s="36"/>
       <c r="B64" s="36"/>
       <c r="C64" s="36"/>
@@ -10013,7 +9745,7 @@
       <c r="Y64" s="36"/>
       <c r="Z64" s="36"/>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="1:26" ht="15.75" customHeight="1">
       <c r="A65" s="36"/>
       <c r="B65" s="36"/>
       <c r="C65" s="36"/>
@@ -10041,7 +9773,7 @@
       <c r="Y65" s="36"/>
       <c r="Z65" s="36"/>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="1:26" ht="15.75" customHeight="1">
       <c r="A66" s="36"/>
       <c r="B66" s="36"/>
       <c r="C66" s="36"/>
@@ -10069,7 +9801,7 @@
       <c r="Y66" s="36"/>
       <c r="Z66" s="36"/>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="1:26" ht="15.75" customHeight="1">
       <c r="A67" s="36"/>
       <c r="B67" s="36"/>
       <c r="C67" s="36"/>
@@ -10097,7 +9829,7 @@
       <c r="Y67" s="36"/>
       <c r="Z67" s="36"/>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" spans="1:26" ht="15.75" customHeight="1">
       <c r="A68" s="36"/>
       <c r="B68" s="36"/>
       <c r="C68" s="36"/>
@@ -10125,7 +9857,7 @@
       <c r="Y68" s="36"/>
       <c r="Z68" s="36"/>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" spans="1:26" ht="15.75" customHeight="1">
       <c r="A69" s="36"/>
       <c r="B69" s="36"/>
       <c r="C69" s="36"/>
@@ -10153,7 +9885,7 @@
       <c r="Y69" s="36"/>
       <c r="Z69" s="36"/>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" spans="1:26" ht="15.75" customHeight="1">
       <c r="A70" s="36"/>
       <c r="B70" s="36"/>
       <c r="C70" s="36"/>
@@ -10181,7 +9913,7 @@
       <c r="Y70" s="36"/>
       <c r="Z70" s="36"/>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" spans="1:26" ht="15.75" customHeight="1">
       <c r="A71" s="36"/>
       <c r="B71" s="36"/>
       <c r="C71" s="36"/>
@@ -10209,7 +9941,7 @@
       <c r="Y71" s="36"/>
       <c r="Z71" s="36"/>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="72" spans="1:26" ht="15.75" customHeight="1">
       <c r="A72" s="36"/>
       <c r="B72" s="36"/>
       <c r="C72" s="36"/>
@@ -10237,7 +9969,7 @@
       <c r="Y72" s="36"/>
       <c r="Z72" s="36"/>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
+    <row r="73" spans="1:26" ht="15.75" customHeight="1">
       <c r="A73" s="36"/>
       <c r="B73" s="36"/>
       <c r="C73" s="36"/>
@@ -10265,7 +9997,7 @@
       <c r="Y73" s="36"/>
       <c r="Z73" s="36"/>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="74" spans="1:26" ht="15.75" customHeight="1">
       <c r="A74" s="36"/>
       <c r="B74" s="36"/>
       <c r="C74" s="36"/>
@@ -10293,7 +10025,7 @@
       <c r="Y74" s="36"/>
       <c r="Z74" s="36"/>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
+    <row r="75" spans="1:26" ht="15.75" customHeight="1">
       <c r="A75" s="36"/>
       <c r="B75" s="36"/>
       <c r="C75" s="36"/>
@@ -10321,7 +10053,7 @@
       <c r="Y75" s="36"/>
       <c r="Z75" s="36"/>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
+    <row r="76" spans="1:26" ht="15.75" customHeight="1">
       <c r="A76" s="36"/>
       <c r="B76" s="36"/>
       <c r="C76" s="36"/>
@@ -10349,7 +10081,7 @@
       <c r="Y76" s="36"/>
       <c r="Z76" s="36"/>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
+    <row r="77" spans="1:26" ht="15.75" customHeight="1">
       <c r="A77" s="36"/>
       <c r="B77" s="36"/>
       <c r="C77" s="36"/>
@@ -10377,7 +10109,7 @@
       <c r="Y77" s="36"/>
       <c r="Z77" s="36"/>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
+    <row r="78" spans="1:26" ht="15.75" customHeight="1">
       <c r="A78" s="36"/>
       <c r="B78" s="36"/>
       <c r="C78" s="36"/>
@@ -10405,7 +10137,7 @@
       <c r="Y78" s="36"/>
       <c r="Z78" s="36"/>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
+    <row r="79" spans="1:26" ht="15.75" customHeight="1">
       <c r="A79" s="36"/>
       <c r="B79" s="36"/>
       <c r="C79" s="36"/>
@@ -10433,7 +10165,7 @@
       <c r="Y79" s="36"/>
       <c r="Z79" s="36"/>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
+    <row r="80" spans="1:26" ht="15.75" customHeight="1">
       <c r="A80" s="36"/>
       <c r="B80" s="36"/>
       <c r="C80" s="36"/>
@@ -10461,7 +10193,7 @@
       <c r="Y80" s="36"/>
       <c r="Z80" s="36"/>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
+    <row r="81" spans="1:26" ht="15.75" customHeight="1">
       <c r="A81" s="36"/>
       <c r="B81" s="36"/>
       <c r="C81" s="36"/>
@@ -10489,7 +10221,7 @@
       <c r="Y81" s="36"/>
       <c r="Z81" s="36"/>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
+    <row r="82" spans="1:26" ht="15.75" customHeight="1">
       <c r="A82" s="36"/>
       <c r="B82" s="36"/>
       <c r="C82" s="36"/>
@@ -10517,7 +10249,7 @@
       <c r="Y82" s="36"/>
       <c r="Z82" s="36"/>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
+    <row r="83" spans="1:26" ht="15.75" customHeight="1">
       <c r="A83" s="36"/>
       <c r="B83" s="36"/>
       <c r="C83" s="36"/>
@@ -10545,7 +10277,7 @@
       <c r="Y83" s="36"/>
       <c r="Z83" s="36"/>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
+    <row r="84" spans="1:26" ht="15.75" customHeight="1">
       <c r="A84" s="36"/>
       <c r="B84" s="36"/>
       <c r="C84" s="36"/>
@@ -10573,7 +10305,7 @@
       <c r="Y84" s="36"/>
       <c r="Z84" s="36"/>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
+    <row r="85" spans="1:26" ht="15.75" customHeight="1">
       <c r="A85" s="36"/>
       <c r="B85" s="36"/>
       <c r="C85" s="36"/>
@@ -10601,7 +10333,7 @@
       <c r="Y85" s="36"/>
       <c r="Z85" s="36"/>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
+    <row r="86" spans="1:26" ht="15.75" customHeight="1">
       <c r="A86" s="36"/>
       <c r="B86" s="36"/>
       <c r="C86" s="36"/>
@@ -10629,7 +10361,7 @@
       <c r="Y86" s="36"/>
       <c r="Z86" s="36"/>
     </row>
-    <row r="87" ht="15.75" customHeight="1">
+    <row r="87" spans="1:26" ht="15.75" customHeight="1">
       <c r="A87" s="36"/>
       <c r="B87" s="36"/>
       <c r="C87" s="36"/>
@@ -10657,7 +10389,7 @@
       <c r="Y87" s="36"/>
       <c r="Z87" s="36"/>
     </row>
-    <row r="88" ht="15.75" customHeight="1">
+    <row r="88" spans="1:26" ht="15.75" customHeight="1">
       <c r="A88" s="36"/>
       <c r="B88" s="36"/>
       <c r="C88" s="36"/>
@@ -10685,7 +10417,7 @@
       <c r="Y88" s="36"/>
       <c r="Z88" s="36"/>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
+    <row r="89" spans="1:26" ht="15.75" customHeight="1">
       <c r="A89" s="36"/>
       <c r="B89" s="36"/>
       <c r="C89" s="36"/>
@@ -10713,7 +10445,7 @@
       <c r="Y89" s="36"/>
       <c r="Z89" s="36"/>
     </row>
-    <row r="90" ht="15.75" customHeight="1">
+    <row r="90" spans="1:26" ht="15.75" customHeight="1">
       <c r="A90" s="36"/>
       <c r="B90" s="36"/>
       <c r="C90" s="36"/>
@@ -10741,7 +10473,7 @@
       <c r="Y90" s="36"/>
       <c r="Z90" s="36"/>
     </row>
-    <row r="91" ht="15.75" customHeight="1">
+    <row r="91" spans="1:26" ht="15.75" customHeight="1">
       <c r="A91" s="36"/>
       <c r="B91" s="36"/>
       <c r="C91" s="36"/>
@@ -10769,7 +10501,7 @@
       <c r="Y91" s="36"/>
       <c r="Z91" s="36"/>
     </row>
-    <row r="92" ht="15.75" customHeight="1">
+    <row r="92" spans="1:26" ht="15.75" customHeight="1">
       <c r="A92" s="36"/>
       <c r="B92" s="36"/>
       <c r="C92" s="36"/>
@@ -10797,7 +10529,7 @@
       <c r="Y92" s="36"/>
       <c r="Z92" s="36"/>
     </row>
-    <row r="93" ht="15.75" customHeight="1">
+    <row r="93" spans="1:26" ht="15.75" customHeight="1">
       <c r="A93" s="36"/>
       <c r="B93" s="36"/>
       <c r="C93" s="36"/>
@@ -10825,7 +10557,7 @@
       <c r="Y93" s="36"/>
       <c r="Z93" s="36"/>
     </row>
-    <row r="94" ht="15.75" customHeight="1">
+    <row r="94" spans="1:26" ht="15.75" customHeight="1">
       <c r="A94" s="36"/>
       <c r="B94" s="36"/>
       <c r="C94" s="36"/>
@@ -10853,7 +10585,7 @@
       <c r="Y94" s="36"/>
       <c r="Z94" s="36"/>
     </row>
-    <row r="95" ht="15.75" customHeight="1">
+    <row r="95" spans="1:26" ht="15.75" customHeight="1">
       <c r="A95" s="36"/>
       <c r="B95" s="36"/>
       <c r="C95" s="36"/>
@@ -10881,7 +10613,7 @@
       <c r="Y95" s="36"/>
       <c r="Z95" s="36"/>
     </row>
-    <row r="96" ht="15.75" customHeight="1">
+    <row r="96" spans="1:26" ht="15.75" customHeight="1">
       <c r="A96" s="36"/>
       <c r="B96" s="36"/>
       <c r="C96" s="36"/>
@@ -10909,7 +10641,7 @@
       <c r="Y96" s="36"/>
       <c r="Z96" s="36"/>
     </row>
-    <row r="97" ht="15.75" customHeight="1">
+    <row r="97" spans="1:26" ht="15.75" customHeight="1">
       <c r="A97" s="36"/>
       <c r="B97" s="36"/>
       <c r="C97" s="36"/>
@@ -10937,7 +10669,7 @@
       <c r="Y97" s="36"/>
       <c r="Z97" s="36"/>
     </row>
-    <row r="98" ht="15.75" customHeight="1">
+    <row r="98" spans="1:26" ht="15.75" customHeight="1">
       <c r="A98" s="36"/>
       <c r="B98" s="36"/>
       <c r="C98" s="36"/>
@@ -10965,7 +10697,7 @@
       <c r="Y98" s="36"/>
       <c r="Z98" s="36"/>
     </row>
-    <row r="99" ht="15.75" customHeight="1">
+    <row r="99" spans="1:26" ht="15.75" customHeight="1">
       <c r="A99" s="36"/>
       <c r="B99" s="36"/>
       <c r="C99" s="36"/>
@@ -10993,7 +10725,7 @@
       <c r="Y99" s="36"/>
       <c r="Z99" s="36"/>
     </row>
-    <row r="100" ht="15.75" customHeight="1">
+    <row r="100" spans="1:26" ht="15.75" customHeight="1">
       <c r="A100" s="36"/>
       <c r="B100" s="36"/>
       <c r="C100" s="36"/>
@@ -11021,7 +10753,7 @@
       <c r="Y100" s="36"/>
       <c r="Z100" s="36"/>
     </row>
-    <row r="101" ht="15.75" customHeight="1">
+    <row r="101" spans="1:26" ht="15.75" customHeight="1">
       <c r="A101" s="36"/>
       <c r="B101" s="36"/>
       <c r="C101" s="36"/>
@@ -11049,7 +10781,7 @@
       <c r="Y101" s="36"/>
       <c r="Z101" s="36"/>
     </row>
-    <row r="102" ht="15.75" customHeight="1">
+    <row r="102" spans="1:26" ht="15.75" customHeight="1">
       <c r="A102" s="36"/>
       <c r="B102" s="36"/>
       <c r="C102" s="36"/>
@@ -11077,7 +10809,7 @@
       <c r="Y102" s="36"/>
       <c r="Z102" s="36"/>
     </row>
-    <row r="103" ht="15.75" customHeight="1">
+    <row r="103" spans="1:26" ht="15.75" customHeight="1">
       <c r="A103" s="36"/>
       <c r="B103" s="36"/>
       <c r="C103" s="36"/>
@@ -11105,7 +10837,7 @@
       <c r="Y103" s="36"/>
       <c r="Z103" s="36"/>
     </row>
-    <row r="104" ht="15.75" customHeight="1">
+    <row r="104" spans="1:26" ht="15.75" customHeight="1">
       <c r="A104" s="36"/>
       <c r="B104" s="36"/>
       <c r="C104" s="36"/>
@@ -11133,7 +10865,7 @@
       <c r="Y104" s="36"/>
       <c r="Z104" s="36"/>
     </row>
-    <row r="105" ht="15.75" customHeight="1">
+    <row r="105" spans="1:26" ht="15.75" customHeight="1">
       <c r="A105" s="36"/>
       <c r="B105" s="36"/>
       <c r="C105" s="36"/>
@@ -11161,7 +10893,7 @@
       <c r="Y105" s="36"/>
       <c r="Z105" s="36"/>
     </row>
-    <row r="106" ht="15.75" customHeight="1">
+    <row r="106" spans="1:26" ht="15.75" customHeight="1">
       <c r="A106" s="36"/>
       <c r="B106" s="36"/>
       <c r="C106" s="36"/>
@@ -11189,7 +10921,7 @@
       <c r="Y106" s="36"/>
       <c r="Z106" s="36"/>
     </row>
-    <row r="107" ht="15.75" customHeight="1">
+    <row r="107" spans="1:26" ht="15.75" customHeight="1">
       <c r="A107" s="36"/>
       <c r="B107" s="36"/>
       <c r="C107" s="36"/>
@@ -11217,7 +10949,7 @@
       <c r="Y107" s="36"/>
       <c r="Z107" s="36"/>
     </row>
-    <row r="108" ht="15.75" customHeight="1">
+    <row r="108" spans="1:26" ht="15.75" customHeight="1">
       <c r="A108" s="36"/>
       <c r="B108" s="36"/>
       <c r="C108" s="36"/>
@@ -11245,7 +10977,7 @@
       <c r="Y108" s="36"/>
       <c r="Z108" s="36"/>
     </row>
-    <row r="109" ht="15.75" customHeight="1">
+    <row r="109" spans="1:26" ht="15.75" customHeight="1">
       <c r="A109" s="36"/>
       <c r="B109" s="36"/>
       <c r="C109" s="36"/>
@@ -11273,7 +11005,7 @@
       <c r="Y109" s="36"/>
       <c r="Z109" s="36"/>
     </row>
-    <row r="110" ht="15.75" customHeight="1">
+    <row r="110" spans="1:26" ht="15.75" customHeight="1">
       <c r="A110" s="36"/>
       <c r="B110" s="36"/>
       <c r="C110" s="36"/>
@@ -11301,7 +11033,7 @@
       <c r="Y110" s="36"/>
       <c r="Z110" s="36"/>
     </row>
-    <row r="111" ht="15.75" customHeight="1">
+    <row r="111" spans="1:26" ht="15.75" customHeight="1">
       <c r="A111" s="36"/>
       <c r="B111" s="36"/>
       <c r="C111" s="36"/>
@@ -11329,7 +11061,7 @@
       <c r="Y111" s="36"/>
       <c r="Z111" s="36"/>
     </row>
-    <row r="112" ht="15.75" customHeight="1">
+    <row r="112" spans="1:26" ht="15.75" customHeight="1">
       <c r="A112" s="36"/>
       <c r="B112" s="36"/>
       <c r="C112" s="36"/>
@@ -11357,7 +11089,7 @@
       <c r="Y112" s="36"/>
       <c r="Z112" s="36"/>
     </row>
-    <row r="113" ht="15.75" customHeight="1">
+    <row r="113" spans="1:26" ht="15.75" customHeight="1">
       <c r="A113" s="36"/>
       <c r="B113" s="36"/>
       <c r="C113" s="36"/>
@@ -11385,7 +11117,7 @@
       <c r="Y113" s="36"/>
       <c r="Z113" s="36"/>
     </row>
-    <row r="114" ht="15.75" customHeight="1">
+    <row r="114" spans="1:26" ht="15.75" customHeight="1">
       <c r="A114" s="36"/>
       <c r="B114" s="36"/>
       <c r="C114" s="36"/>
@@ -11413,7 +11145,7 @@
       <c r="Y114" s="36"/>
       <c r="Z114" s="36"/>
     </row>
-    <row r="115" ht="15.75" customHeight="1">
+    <row r="115" spans="1:26" ht="15.75" customHeight="1">
       <c r="A115" s="36"/>
       <c r="B115" s="36"/>
       <c r="C115" s="36"/>
@@ -11441,7 +11173,7 @@
       <c r="Y115" s="36"/>
       <c r="Z115" s="36"/>
     </row>
-    <row r="116" ht="15.75" customHeight="1">
+    <row r="116" spans="1:26" ht="15.75" customHeight="1">
       <c r="A116" s="36"/>
       <c r="B116" s="36"/>
       <c r="C116" s="36"/>
@@ -11469,7 +11201,7 @@
       <c r="Y116" s="36"/>
       <c r="Z116" s="36"/>
     </row>
-    <row r="117" ht="15.75" customHeight="1">
+    <row r="117" spans="1:26" ht="15.75" customHeight="1">
       <c r="A117" s="36"/>
       <c r="B117" s="36"/>
       <c r="C117" s="36"/>
@@ -11497,7 +11229,7 @@
       <c r="Y117" s="36"/>
       <c r="Z117" s="36"/>
     </row>
-    <row r="118" ht="15.75" customHeight="1">
+    <row r="118" spans="1:26" ht="15.75" customHeight="1">
       <c r="A118" s="36"/>
       <c r="B118" s="36"/>
       <c r="C118" s="36"/>
@@ -11525,7 +11257,7 @@
       <c r="Y118" s="36"/>
       <c r="Z118" s="36"/>
     </row>
-    <row r="119" ht="15.75" customHeight="1">
+    <row r="119" spans="1:26" ht="15.75" customHeight="1">
       <c r="A119" s="36"/>
       <c r="B119" s="36"/>
       <c r="C119" s="36"/>
@@ -11553,7 +11285,7 @@
       <c r="Y119" s="36"/>
       <c r="Z119" s="36"/>
     </row>
-    <row r="120" ht="15.75" customHeight="1">
+    <row r="120" spans="1:26" ht="15.75" customHeight="1">
       <c r="A120" s="36"/>
       <c r="B120" s="36"/>
       <c r="C120" s="36"/>
@@ -11581,7 +11313,7 @@
       <c r="Y120" s="36"/>
       <c r="Z120" s="36"/>
     </row>
-    <row r="121" ht="15.75" customHeight="1">
+    <row r="121" spans="1:26" ht="15.75" customHeight="1">
       <c r="A121" s="36"/>
       <c r="B121" s="36"/>
       <c r="C121" s="36"/>
@@ -11609,7 +11341,7 @@
       <c r="Y121" s="36"/>
       <c r="Z121" s="36"/>
     </row>
-    <row r="122" ht="15.75" customHeight="1">
+    <row r="122" spans="1:26" ht="15.75" customHeight="1">
       <c r="A122" s="36"/>
       <c r="B122" s="36"/>
       <c r="C122" s="36"/>
@@ -11637,7 +11369,7 @@
       <c r="Y122" s="36"/>
       <c r="Z122" s="36"/>
     </row>
-    <row r="123" ht="15.75" customHeight="1">
+    <row r="123" spans="1:26" ht="15.75" customHeight="1">
       <c r="A123" s="36"/>
       <c r="B123" s="36"/>
       <c r="C123" s="36"/>
@@ -11665,7 +11397,7 @@
       <c r="Y123" s="36"/>
       <c r="Z123" s="36"/>
     </row>
-    <row r="124" ht="15.75" customHeight="1">
+    <row r="124" spans="1:26" ht="15.75" customHeight="1">
       <c r="A124" s="36"/>
       <c r="B124" s="36"/>
       <c r="C124" s="36"/>
@@ -11693,7 +11425,7 @@
       <c r="Y124" s="36"/>
       <c r="Z124" s="36"/>
     </row>
-    <row r="125" ht="15.75" customHeight="1">
+    <row r="125" spans="1:26" ht="15.75" customHeight="1">
       <c r="A125" s="36"/>
       <c r="B125" s="36"/>
       <c r="C125" s="36"/>
@@ -11721,7 +11453,7 @@
       <c r="Y125" s="36"/>
       <c r="Z125" s="36"/>
     </row>
-    <row r="126" ht="15.75" customHeight="1">
+    <row r="126" spans="1:26" ht="15.75" customHeight="1">
       <c r="A126" s="36"/>
       <c r="B126" s="36"/>
       <c r="C126" s="36"/>
@@ -11749,7 +11481,7 @@
       <c r="Y126" s="36"/>
       <c r="Z126" s="36"/>
     </row>
-    <row r="127" ht="15.75" customHeight="1">
+    <row r="127" spans="1:26" ht="15.75" customHeight="1">
       <c r="A127" s="36"/>
       <c r="B127" s="36"/>
       <c r="C127" s="36"/>
@@ -11777,7 +11509,7 @@
       <c r="Y127" s="36"/>
       <c r="Z127" s="36"/>
     </row>
-    <row r="128" ht="15.75" customHeight="1">
+    <row r="128" spans="1:26" ht="15.75" customHeight="1">
       <c r="A128" s="36"/>
       <c r="B128" s="36"/>
       <c r="C128" s="36"/>
@@ -11805,7 +11537,7 @@
       <c r="Y128" s="36"/>
       <c r="Z128" s="36"/>
     </row>
-    <row r="129" ht="15.75" customHeight="1">
+    <row r="129" spans="1:26" ht="15.75" customHeight="1">
       <c r="A129" s="36"/>
       <c r="B129" s="36"/>
       <c r="C129" s="36"/>
@@ -11833,7 +11565,7 @@
       <c r="Y129" s="36"/>
       <c r="Z129" s="36"/>
     </row>
-    <row r="130" ht="15.75" customHeight="1">
+    <row r="130" spans="1:26" ht="15.75" customHeight="1">
       <c r="A130" s="36"/>
       <c r="B130" s="36"/>
       <c r="C130" s="36"/>
@@ -11861,7 +11593,7 @@
       <c r="Y130" s="36"/>
       <c r="Z130" s="36"/>
     </row>
-    <row r="131" ht="15.75" customHeight="1">
+    <row r="131" spans="1:26" ht="15.75" customHeight="1">
       <c r="A131" s="36"/>
       <c r="B131" s="36"/>
       <c r="C131" s="36"/>
@@ -11889,7 +11621,7 @@
       <c r="Y131" s="36"/>
       <c r="Z131" s="36"/>
     </row>
-    <row r="132" ht="15.75" customHeight="1">
+    <row r="132" spans="1:26" ht="15.75" customHeight="1">
       <c r="A132" s="36"/>
       <c r="B132" s="36"/>
       <c r="C132" s="36"/>
@@ -11917,7 +11649,7 @@
       <c r="Y132" s="36"/>
       <c r="Z132" s="36"/>
     </row>
-    <row r="133" ht="15.75" customHeight="1">
+    <row r="133" spans="1:26" ht="15.75" customHeight="1">
       <c r="A133" s="36"/>
       <c r="B133" s="36"/>
       <c r="C133" s="36"/>
@@ -11945,7 +11677,7 @@
       <c r="Y133" s="36"/>
       <c r="Z133" s="36"/>
     </row>
-    <row r="134" ht="15.75" customHeight="1">
+    <row r="134" spans="1:26" ht="15.75" customHeight="1">
       <c r="A134" s="36"/>
       <c r="B134" s="36"/>
       <c r="C134" s="36"/>
@@ -11973,7 +11705,7 @@
       <c r="Y134" s="36"/>
       <c r="Z134" s="36"/>
     </row>
-    <row r="135" ht="15.75" customHeight="1">
+    <row r="135" spans="1:26" ht="15.75" customHeight="1">
       <c r="A135" s="36"/>
       <c r="B135" s="36"/>
       <c r="C135" s="36"/>
@@ -12001,7 +11733,7 @@
       <c r="Y135" s="36"/>
       <c r="Z135" s="36"/>
     </row>
-    <row r="136" ht="15.75" customHeight="1">
+    <row r="136" spans="1:26" ht="15.75" customHeight="1">
       <c r="A136" s="36"/>
       <c r="B136" s="36"/>
       <c r="C136" s="36"/>
@@ -12029,7 +11761,7 @@
       <c r="Y136" s="36"/>
       <c r="Z136" s="36"/>
     </row>
-    <row r="137" ht="15.75" customHeight="1">
+    <row r="137" spans="1:26" ht="15.75" customHeight="1">
       <c r="A137" s="36"/>
       <c r="B137" s="36"/>
       <c r="C137" s="36"/>
@@ -12057,7 +11789,7 @@
       <c r="Y137" s="36"/>
       <c r="Z137" s="36"/>
     </row>
-    <row r="138" ht="15.75" customHeight="1">
+    <row r="138" spans="1:26" ht="15.75" customHeight="1">
       <c r="A138" s="36"/>
       <c r="B138" s="36"/>
       <c r="C138" s="36"/>
@@ -12085,7 +11817,7 @@
       <c r="Y138" s="36"/>
       <c r="Z138" s="36"/>
     </row>
-    <row r="139" ht="15.75" customHeight="1">
+    <row r="139" spans="1:26" ht="15.75" customHeight="1">
       <c r="A139" s="36"/>
       <c r="B139" s="36"/>
       <c r="C139" s="36"/>
@@ -12113,7 +11845,7 @@
       <c r="Y139" s="36"/>
       <c r="Z139" s="36"/>
     </row>
-    <row r="140" ht="15.75" customHeight="1">
+    <row r="140" spans="1:26" ht="15.75" customHeight="1">
       <c r="A140" s="36"/>
       <c r="B140" s="36"/>
       <c r="C140" s="36"/>
@@ -12141,7 +11873,7 @@
       <c r="Y140" s="36"/>
       <c r="Z140" s="36"/>
     </row>
-    <row r="141" ht="15.75" customHeight="1">
+    <row r="141" spans="1:26" ht="15.75" customHeight="1">
       <c r="A141" s="36"/>
       <c r="B141" s="36"/>
       <c r="C141" s="36"/>
@@ -12169,7 +11901,7 @@
       <c r="Y141" s="36"/>
       <c r="Z141" s="36"/>
     </row>
-    <row r="142" ht="15.75" customHeight="1">
+    <row r="142" spans="1:26" ht="15.75" customHeight="1">
       <c r="A142" s="36"/>
       <c r="B142" s="36"/>
       <c r="C142" s="36"/>
@@ -12197,7 +11929,7 @@
       <c r="Y142" s="36"/>
       <c r="Z142" s="36"/>
     </row>
-    <row r="143" ht="15.75" customHeight="1">
+    <row r="143" spans="1:26" ht="15.75" customHeight="1">
       <c r="A143" s="36"/>
       <c r="B143" s="36"/>
       <c r="C143" s="36"/>
@@ -12225,7 +11957,7 @@
       <c r="Y143" s="36"/>
       <c r="Z143" s="36"/>
     </row>
-    <row r="144" ht="15.75" customHeight="1">
+    <row r="144" spans="1:26" ht="15.75" customHeight="1">
       <c r="A144" s="36"/>
       <c r="B144" s="36"/>
       <c r="C144" s="36"/>
@@ -12253,7 +11985,7 @@
       <c r="Y144" s="36"/>
       <c r="Z144" s="36"/>
     </row>
-    <row r="145" ht="15.75" customHeight="1">
+    <row r="145" spans="1:26" ht="15.75" customHeight="1">
       <c r="A145" s="36"/>
       <c r="B145" s="36"/>
       <c r="C145" s="36"/>
@@ -12281,7 +12013,7 @@
       <c r="Y145" s="36"/>
       <c r="Z145" s="36"/>
     </row>
-    <row r="146" ht="15.75" customHeight="1">
+    <row r="146" spans="1:26" ht="15.75" customHeight="1">
       <c r="A146" s="36"/>
       <c r="B146" s="36"/>
       <c r="C146" s="36"/>
@@ -12309,7 +12041,7 @@
       <c r="Y146" s="36"/>
       <c r="Z146" s="36"/>
     </row>
-    <row r="147" ht="15.75" customHeight="1">
+    <row r="147" spans="1:26" ht="15.75" customHeight="1">
       <c r="A147" s="36"/>
       <c r="B147" s="36"/>
       <c r="C147" s="36"/>
@@ -12337,7 +12069,7 @@
       <c r="Y147" s="36"/>
       <c r="Z147" s="36"/>
     </row>
-    <row r="148" ht="15.75" customHeight="1">
+    <row r="148" spans="1:26" ht="15.75" customHeight="1">
       <c r="A148" s="36"/>
       <c r="B148" s="36"/>
       <c r="C148" s="36"/>
@@ -12365,7 +12097,7 @@
       <c r="Y148" s="36"/>
       <c r="Z148" s="36"/>
     </row>
-    <row r="149" ht="15.75" customHeight="1">
+    <row r="149" spans="1:26" ht="15.75" customHeight="1">
       <c r="A149" s="36"/>
       <c r="B149" s="36"/>
       <c r="C149" s="36"/>
@@ -12393,7 +12125,7 @@
       <c r="Y149" s="36"/>
       <c r="Z149" s="36"/>
     </row>
-    <row r="150" ht="15.75" customHeight="1">
+    <row r="150" spans="1:26" ht="15.75" customHeight="1">
       <c r="A150" s="36"/>
       <c r="B150" s="36"/>
       <c r="C150" s="36"/>
@@ -12421,7 +12153,7 @@
       <c r="Y150" s="36"/>
       <c r="Z150" s="36"/>
     </row>
-    <row r="151" ht="15.75" customHeight="1">
+    <row r="151" spans="1:26" ht="15.75" customHeight="1">
       <c r="A151" s="36"/>
       <c r="B151" s="36"/>
       <c r="C151" s="36"/>
@@ -12449,7 +12181,7 @@
       <c r="Y151" s="36"/>
       <c r="Z151" s="36"/>
     </row>
-    <row r="152" ht="15.75" customHeight="1">
+    <row r="152" spans="1:26" ht="15.75" customHeight="1">
       <c r="A152" s="36"/>
       <c r="B152" s="36"/>
       <c r="C152" s="36"/>
@@ -12477,7 +12209,7 @@
       <c r="Y152" s="36"/>
       <c r="Z152" s="36"/>
     </row>
-    <row r="153" ht="15.75" customHeight="1">
+    <row r="153" spans="1:26" ht="15.75" customHeight="1">
       <c r="A153" s="36"/>
       <c r="B153" s="36"/>
       <c r="C153" s="36"/>
@@ -12505,7 +12237,7 @@
       <c r="Y153" s="36"/>
       <c r="Z153" s="36"/>
     </row>
-    <row r="154" ht="15.75" customHeight="1">
+    <row r="154" spans="1:26" ht="15.75" customHeight="1">
       <c r="A154" s="36"/>
       <c r="B154" s="36"/>
       <c r="C154" s="36"/>
@@ -12533,7 +12265,7 @@
       <c r="Y154" s="36"/>
       <c r="Z154" s="36"/>
     </row>
-    <row r="155" ht="15.75" customHeight="1">
+    <row r="155" spans="1:26" ht="15.75" customHeight="1">
       <c r="A155" s="36"/>
       <c r="B155" s="36"/>
       <c r="C155" s="36"/>
@@ -12561,7 +12293,7 @@
       <c r="Y155" s="36"/>
       <c r="Z155" s="36"/>
     </row>
-    <row r="156" ht="15.75" customHeight="1">
+    <row r="156" spans="1:26" ht="15.75" customHeight="1">
       <c r="A156" s="36"/>
       <c r="B156" s="36"/>
       <c r="C156" s="36"/>
@@ -12589,7 +12321,7 @@
       <c r="Y156" s="36"/>
       <c r="Z156" s="36"/>
     </row>
-    <row r="157" ht="15.75" customHeight="1">
+    <row r="157" spans="1:26" ht="15.75" customHeight="1">
       <c r="A157" s="36"/>
       <c r="B157" s="36"/>
       <c r="C157" s="36"/>
@@ -12617,7 +12349,7 @@
       <c r="Y157" s="36"/>
       <c r="Z157" s="36"/>
     </row>
-    <row r="158" ht="15.75" customHeight="1">
+    <row r="158" spans="1:26" ht="15.75" customHeight="1">
       <c r="A158" s="36"/>
       <c r="B158" s="36"/>
       <c r="C158" s="36"/>
@@ -12645,7 +12377,7 @@
       <c r="Y158" s="36"/>
       <c r="Z158" s="36"/>
     </row>
-    <row r="159" ht="15.75" customHeight="1">
+    <row r="159" spans="1:26" ht="15.75" customHeight="1">
       <c r="A159" s="36"/>
       <c r="B159" s="36"/>
       <c r="C159" s="36"/>
@@ -12673,7 +12405,7 @@
       <c r="Y159" s="36"/>
       <c r="Z159" s="36"/>
     </row>
-    <row r="160" ht="15.75" customHeight="1">
+    <row r="160" spans="1:26" ht="15.75" customHeight="1">
       <c r="A160" s="36"/>
       <c r="B160" s="36"/>
       <c r="C160" s="36"/>
@@ -12701,7 +12433,7 @@
       <c r="Y160" s="36"/>
       <c r="Z160" s="36"/>
     </row>
-    <row r="161" ht="15.75" customHeight="1">
+    <row r="161" spans="1:26" ht="15.75" customHeight="1">
       <c r="A161" s="36"/>
       <c r="B161" s="36"/>
       <c r="C161" s="36"/>
@@ -12729,7 +12461,7 @@
       <c r="Y161" s="36"/>
       <c r="Z161" s="36"/>
     </row>
-    <row r="162" ht="15.75" customHeight="1">
+    <row r="162" spans="1:26" ht="15.75" customHeight="1">
       <c r="A162" s="36"/>
       <c r="B162" s="36"/>
       <c r="C162" s="36"/>
@@ -12757,7 +12489,7 @@
       <c r="Y162" s="36"/>
       <c r="Z162" s="36"/>
     </row>
-    <row r="163" ht="15.75" customHeight="1">
+    <row r="163" spans="1:26" ht="15.75" customHeight="1">
       <c r="A163" s="36"/>
       <c r="B163" s="36"/>
       <c r="C163" s="36"/>
@@ -12785,7 +12517,7 @@
       <c r="Y163" s="36"/>
       <c r="Z163" s="36"/>
     </row>
-    <row r="164" ht="15.75" customHeight="1">
+    <row r="164" spans="1:26" ht="15.75" customHeight="1">
       <c r="A164" s="36"/>
       <c r="B164" s="36"/>
       <c r="C164" s="36"/>
@@ -12813,7 +12545,7 @@
       <c r="Y164" s="36"/>
       <c r="Z164" s="36"/>
     </row>
-    <row r="165" ht="15.75" customHeight="1">
+    <row r="165" spans="1:26" ht="15.75" customHeight="1">
       <c r="A165" s="36"/>
       <c r="B165" s="36"/>
       <c r="C165" s="36"/>
@@ -12841,7 +12573,7 @@
       <c r="Y165" s="36"/>
       <c r="Z165" s="36"/>
     </row>
-    <row r="166" ht="15.75" customHeight="1">
+    <row r="166" spans="1:26" ht="15.75" customHeight="1">
       <c r="A166" s="36"/>
       <c r="B166" s="36"/>
       <c r="C166" s="36"/>
@@ -12869,7 +12601,7 @@
       <c r="Y166" s="36"/>
       <c r="Z166" s="36"/>
     </row>
-    <row r="167" ht="15.75" customHeight="1">
+    <row r="167" spans="1:26" ht="15.75" customHeight="1">
       <c r="A167" s="36"/>
       <c r="B167" s="36"/>
       <c r="C167" s="36"/>
@@ -12897,7 +12629,7 @@
       <c r="Y167" s="36"/>
       <c r="Z167" s="36"/>
     </row>
-    <row r="168" ht="15.75" customHeight="1">
+    <row r="168" spans="1:26" ht="15.75" customHeight="1">
       <c r="A168" s="36"/>
       <c r="B168" s="36"/>
       <c r="C168" s="36"/>
@@ -12925,7 +12657,7 @@
       <c r="Y168" s="36"/>
       <c r="Z168" s="36"/>
     </row>
-    <row r="169" ht="15.75" customHeight="1">
+    <row r="169" spans="1:26" ht="15.75" customHeight="1">
       <c r="A169" s="36"/>
       <c r="B169" s="36"/>
       <c r="C169" s="36"/>
@@ -12953,7 +12685,7 @@
       <c r="Y169" s="36"/>
       <c r="Z169" s="36"/>
     </row>
-    <row r="170" ht="15.75" customHeight="1">
+    <row r="170" spans="1:26" ht="15.75" customHeight="1">
       <c r="A170" s="36"/>
       <c r="B170" s="36"/>
       <c r="C170" s="36"/>
@@ -12981,7 +12713,7 @@
       <c r="Y170" s="36"/>
       <c r="Z170" s="36"/>
     </row>
-    <row r="171" ht="15.75" customHeight="1">
+    <row r="171" spans="1:26" ht="15.75" customHeight="1">
       <c r="A171" s="36"/>
       <c r="B171" s="36"/>
       <c r="C171" s="36"/>
@@ -13009,7 +12741,7 @@
       <c r="Y171" s="36"/>
       <c r="Z171" s="36"/>
     </row>
-    <row r="172" ht="15.75" customHeight="1">
+    <row r="172" spans="1:26" ht="15.75" customHeight="1">
       <c r="A172" s="36"/>
       <c r="B172" s="36"/>
       <c r="C172" s="36"/>
@@ -13037,7 +12769,7 @@
       <c r="Y172" s="36"/>
       <c r="Z172" s="36"/>
     </row>
-    <row r="173" ht="15.75" customHeight="1">
+    <row r="173" spans="1:26" ht="15.75" customHeight="1">
       <c r="A173" s="36"/>
       <c r="B173" s="36"/>
       <c r="C173" s="36"/>
@@ -13065,7 +12797,7 @@
       <c r="Y173" s="36"/>
       <c r="Z173" s="36"/>
     </row>
-    <row r="174" ht="15.75" customHeight="1">
+    <row r="174" spans="1:26" ht="15.75" customHeight="1">
       <c r="A174" s="36"/>
       <c r="B174" s="36"/>
       <c r="C174" s="36"/>
@@ -13093,7 +12825,7 @@
       <c r="Y174" s="36"/>
       <c r="Z174" s="36"/>
     </row>
-    <row r="175" ht="15.75" customHeight="1">
+    <row r="175" spans="1:26" ht="15.75" customHeight="1">
       <c r="A175" s="36"/>
       <c r="B175" s="36"/>
       <c r="C175" s="36"/>
@@ -13121,7 +12853,7 @@
       <c r="Y175" s="36"/>
       <c r="Z175" s="36"/>
     </row>
-    <row r="176" ht="15.75" customHeight="1">
+    <row r="176" spans="1:26" ht="15.75" customHeight="1">
       <c r="A176" s="36"/>
       <c r="B176" s="36"/>
       <c r="C176" s="36"/>
@@ -13149,7 +12881,7 @@
       <c r="Y176" s="36"/>
       <c r="Z176" s="36"/>
     </row>
-    <row r="177" ht="15.75" customHeight="1">
+    <row r="177" spans="1:26" ht="15.75" customHeight="1">
       <c r="A177" s="36"/>
       <c r="B177" s="36"/>
       <c r="C177" s="36"/>
@@ -13177,7 +12909,7 @@
       <c r="Y177" s="36"/>
       <c r="Z177" s="36"/>
     </row>
-    <row r="178" ht="15.75" customHeight="1">
+    <row r="178" spans="1:26" ht="15.75" customHeight="1">
       <c r="A178" s="36"/>
       <c r="B178" s="36"/>
       <c r="C178" s="36"/>
@@ -13205,7 +12937,7 @@
       <c r="Y178" s="36"/>
       <c r="Z178" s="36"/>
     </row>
-    <row r="179" ht="15.75" customHeight="1">
+    <row r="179" spans="1:26" ht="15.75" customHeight="1">
       <c r="A179" s="36"/>
       <c r="B179" s="36"/>
       <c r="C179" s="36"/>
@@ -13233,7 +12965,7 @@
       <c r="Y179" s="36"/>
       <c r="Z179" s="36"/>
     </row>
-    <row r="180" ht="15.75" customHeight="1">
+    <row r="180" spans="1:26" ht="15.75" customHeight="1">
       <c r="A180" s="36"/>
       <c r="B180" s="36"/>
       <c r="C180" s="36"/>
@@ -13261,7 +12993,7 @@
       <c r="Y180" s="36"/>
       <c r="Z180" s="36"/>
     </row>
-    <row r="181" ht="15.75" customHeight="1">
+    <row r="181" spans="1:26" ht="15.75" customHeight="1">
       <c r="A181" s="36"/>
       <c r="B181" s="36"/>
       <c r="C181" s="36"/>
@@ -13289,7 +13021,7 @@
       <c r="Y181" s="36"/>
       <c r="Z181" s="36"/>
     </row>
-    <row r="182" ht="15.75" customHeight="1">
+    <row r="182" spans="1:26" ht="15.75" customHeight="1">
       <c r="A182" s="36"/>
       <c r="B182" s="36"/>
       <c r="C182" s="36"/>
@@ -13317,7 +13049,7 @@
       <c r="Y182" s="36"/>
       <c r="Z182" s="36"/>
     </row>
-    <row r="183" ht="15.75" customHeight="1">
+    <row r="183" spans="1:26" ht="15.75" customHeight="1">
       <c r="A183" s="36"/>
       <c r="B183" s="36"/>
       <c r="C183" s="36"/>
@@ -13345,7 +13077,7 @@
       <c r="Y183" s="36"/>
       <c r="Z183" s="36"/>
     </row>
-    <row r="184" ht="15.75" customHeight="1">
+    <row r="184" spans="1:26" ht="15.75" customHeight="1">
       <c r="A184" s="36"/>
       <c r="B184" s="36"/>
       <c r="C184" s="36"/>
@@ -13373,7 +13105,7 @@
       <c r="Y184" s="36"/>
       <c r="Z184" s="36"/>
     </row>
-    <row r="185" ht="15.75" customHeight="1">
+    <row r="185" spans="1:26" ht="15.75" customHeight="1">
       <c r="A185" s="36"/>
       <c r="B185" s="36"/>
       <c r="C185" s="36"/>
@@ -13401,7 +13133,7 @@
       <c r="Y185" s="36"/>
       <c r="Z185" s="36"/>
     </row>
-    <row r="186" ht="15.75" customHeight="1">
+    <row r="186" spans="1:26" ht="15.75" customHeight="1">
       <c r="A186" s="36"/>
       <c r="B186" s="36"/>
       <c r="C186" s="36"/>
@@ -13429,7 +13161,7 @@
       <c r="Y186" s="36"/>
       <c r="Z186" s="36"/>
     </row>
-    <row r="187" ht="15.75" customHeight="1">
+    <row r="187" spans="1:26" ht="15.75" customHeight="1">
       <c r="A187" s="36"/>
       <c r="B187" s="36"/>
       <c r="C187" s="36"/>
@@ -13457,7 +13189,7 @@
       <c r="Y187" s="36"/>
       <c r="Z187" s="36"/>
     </row>
-    <row r="188" ht="15.75" customHeight="1">
+    <row r="188" spans="1:26" ht="15.75" customHeight="1">
       <c r="A188" s="36"/>
       <c r="B188" s="36"/>
       <c r="C188" s="36"/>
@@ -13485,7 +13217,7 @@
       <c r="Y188" s="36"/>
       <c r="Z188" s="36"/>
     </row>
-    <row r="189" ht="15.75" customHeight="1">
+    <row r="189" spans="1:26" ht="15.75" customHeight="1">
       <c r="A189" s="36"/>
       <c r="B189" s="36"/>
       <c r="C189" s="36"/>
@@ -13513,7 +13245,7 @@
       <c r="Y189" s="36"/>
       <c r="Z189" s="36"/>
     </row>
-    <row r="190" ht="15.75" customHeight="1">
+    <row r="190" spans="1:26" ht="15.75" customHeight="1">
       <c r="A190" s="36"/>
       <c r="B190" s="36"/>
       <c r="C190" s="36"/>
@@ -13541,7 +13273,7 @@
       <c r="Y190" s="36"/>
       <c r="Z190" s="36"/>
     </row>
-    <row r="191" ht="15.75" customHeight="1">
+    <row r="191" spans="1:26" ht="15.75" customHeight="1">
       <c r="A191" s="36"/>
       <c r="B191" s="36"/>
       <c r="C191" s="36"/>
@@ -13569,7 +13301,7 @@
       <c r="Y191" s="36"/>
       <c r="Z191" s="36"/>
     </row>
-    <row r="192" ht="15.75" customHeight="1">
+    <row r="192" spans="1:26" ht="15.75" customHeight="1">
       <c r="A192" s="36"/>
       <c r="B192" s="36"/>
       <c r="C192" s="36"/>
@@ -13597,7 +13329,7 @@
       <c r="Y192" s="36"/>
       <c r="Z192" s="36"/>
     </row>
-    <row r="193" ht="15.75" customHeight="1">
+    <row r="193" spans="1:26" ht="15.75" customHeight="1">
       <c r="A193" s="36"/>
       <c r="B193" s="36"/>
       <c r="C193" s="36"/>
@@ -13625,7 +13357,7 @@
       <c r="Y193" s="36"/>
       <c r="Z193" s="36"/>
     </row>
-    <row r="194" ht="15.75" customHeight="1">
+    <row r="194" spans="1:26" ht="15.75" customHeight="1">
       <c r="A194" s="36"/>
       <c r="B194" s="36"/>
       <c r="C194" s="36"/>
@@ -13653,7 +13385,7 @@
       <c r="Y194" s="36"/>
       <c r="Z194" s="36"/>
     </row>
-    <row r="195" ht="15.75" customHeight="1">
+    <row r="195" spans="1:26" ht="15.75" customHeight="1">
       <c r="A195" s="36"/>
       <c r="B195" s="36"/>
       <c r="C195" s="36"/>
@@ -13681,7 +13413,7 @@
       <c r="Y195" s="36"/>
       <c r="Z195" s="36"/>
     </row>
-    <row r="196" ht="15.75" customHeight="1">
+    <row r="196" spans="1:26" ht="15.75" customHeight="1">
       <c r="A196" s="36"/>
       <c r="B196" s="36"/>
       <c r="C196" s="36"/>
@@ -13709,7 +13441,7 @@
       <c r="Y196" s="36"/>
       <c r="Z196" s="36"/>
     </row>
-    <row r="197" ht="15.75" customHeight="1">
+    <row r="197" spans="1:26" ht="15.75" customHeight="1">
       <c r="A197" s="36"/>
       <c r="B197" s="36"/>
       <c r="C197" s="36"/>
@@ -13737,7 +13469,7 @@
       <c r="Y197" s="36"/>
       <c r="Z197" s="36"/>
     </row>
-    <row r="198" ht="15.75" customHeight="1">
+    <row r="198" spans="1:26" ht="15.75" customHeight="1">
       <c r="A198" s="36"/>
       <c r="B198" s="36"/>
       <c r="C198" s="36"/>
@@ -13765,7 +13497,7 @@
       <c r="Y198" s="36"/>
       <c r="Z198" s="36"/>
     </row>
-    <row r="199" ht="15.75" customHeight="1">
+    <row r="199" spans="1:26" ht="15.75" customHeight="1">
       <c r="A199" s="36"/>
       <c r="B199" s="36"/>
       <c r="C199" s="36"/>
@@ -13793,7 +13525,7 @@
       <c r="Y199" s="36"/>
       <c r="Z199" s="36"/>
     </row>
-    <row r="200" ht="15.75" customHeight="1">
+    <row r="200" spans="1:26" ht="15.75" customHeight="1">
       <c r="A200" s="36"/>
       <c r="B200" s="36"/>
       <c r="C200" s="36"/>
@@ -13821,7 +13553,7 @@
       <c r="Y200" s="36"/>
       <c r="Z200" s="36"/>
     </row>
-    <row r="201" ht="15.75" customHeight="1">
+    <row r="201" spans="1:26" ht="15.75" customHeight="1">
       <c r="A201" s="36"/>
       <c r="B201" s="36"/>
       <c r="C201" s="36"/>
@@ -13849,7 +13581,7 @@
       <c r="Y201" s="36"/>
       <c r="Z201" s="36"/>
     </row>
-    <row r="202" ht="15.75" customHeight="1">
+    <row r="202" spans="1:26" ht="15.75" customHeight="1">
       <c r="A202" s="36"/>
       <c r="B202" s="36"/>
       <c r="C202" s="36"/>
@@ -13877,7 +13609,7 @@
       <c r="Y202" s="36"/>
       <c r="Z202" s="36"/>
     </row>
-    <row r="203" ht="15.75" customHeight="1">
+    <row r="203" spans="1:26" ht="15.75" customHeight="1">
       <c r="A203" s="36"/>
       <c r="B203" s="36"/>
       <c r="C203" s="36"/>
@@ -13905,7 +13637,7 @@
       <c r="Y203" s="36"/>
       <c r="Z203" s="36"/>
     </row>
-    <row r="204" ht="15.75" customHeight="1">
+    <row r="204" spans="1:26" ht="15.75" customHeight="1">
       <c r="A204" s="36"/>
       <c r="B204" s="36"/>
       <c r="C204" s="36"/>
@@ -13933,7 +13665,7 @@
       <c r="Y204" s="36"/>
       <c r="Z204" s="36"/>
     </row>
-    <row r="205" ht="15.75" customHeight="1">
+    <row r="205" spans="1:26" ht="15.75" customHeight="1">
       <c r="A205" s="36"/>
       <c r="B205" s="36"/>
       <c r="C205" s="36"/>
@@ -13961,7 +13693,7 @@
       <c r="Y205" s="36"/>
       <c r="Z205" s="36"/>
     </row>
-    <row r="206" ht="15.75" customHeight="1">
+    <row r="206" spans="1:26" ht="15.75" customHeight="1">
       <c r="A206" s="36"/>
       <c r="B206" s="36"/>
       <c r="C206" s="36"/>
@@ -13989,7 +13721,7 @@
       <c r="Y206" s="36"/>
       <c r="Z206" s="36"/>
     </row>
-    <row r="207" ht="15.75" customHeight="1">
+    <row r="207" spans="1:26" ht="15.75" customHeight="1">
       <c r="A207" s="36"/>
       <c r="B207" s="36"/>
       <c r="C207" s="36"/>
@@ -14017,7 +13749,7 @@
       <c r="Y207" s="36"/>
       <c r="Z207" s="36"/>
     </row>
-    <row r="208" ht="15.75" customHeight="1">
+    <row r="208" spans="1:26" ht="15.75" customHeight="1">
       <c r="A208" s="36"/>
       <c r="B208" s="36"/>
       <c r="C208" s="36"/>
@@ -14045,7 +13777,7 @@
       <c r="Y208" s="36"/>
       <c r="Z208" s="36"/>
     </row>
-    <row r="209" ht="15.75" customHeight="1">
+    <row r="209" spans="1:26" ht="15.75" customHeight="1">
       <c r="A209" s="36"/>
       <c r="B209" s="36"/>
       <c r="C209" s="36"/>
@@ -14073,7 +13805,7 @@
       <c r="Y209" s="36"/>
       <c r="Z209" s="36"/>
     </row>
-    <row r="210" ht="15.75" customHeight="1">
+    <row r="210" spans="1:26" ht="15.75" customHeight="1">
       <c r="A210" s="36"/>
       <c r="B210" s="36"/>
       <c r="C210" s="36"/>
@@ -14101,7 +13833,7 @@
       <c r="Y210" s="36"/>
       <c r="Z210" s="36"/>
     </row>
-    <row r="211" ht="15.75" customHeight="1">
+    <row r="211" spans="1:26" ht="15.75" customHeight="1">
       <c r="A211" s="36"/>
       <c r="B211" s="36"/>
       <c r="C211" s="36"/>
@@ -14129,7 +13861,7 @@
       <c r="Y211" s="36"/>
       <c r="Z211" s="36"/>
     </row>
-    <row r="212" ht="15.75" customHeight="1">
+    <row r="212" spans="1:26" ht="15.75" customHeight="1">
       <c r="A212" s="36"/>
       <c r="B212" s="36"/>
       <c r="C212" s="36"/>
@@ -14157,7 +13889,7 @@
       <c r="Y212" s="36"/>
       <c r="Z212" s="36"/>
     </row>
-    <row r="213" ht="15.75" customHeight="1">
+    <row r="213" spans="1:26" ht="15.75" customHeight="1">
       <c r="A213" s="36"/>
       <c r="B213" s="36"/>
       <c r="C213" s="36"/>
@@ -14185,7 +13917,7 @@
       <c r="Y213" s="36"/>
       <c r="Z213" s="36"/>
     </row>
-    <row r="214" ht="15.75" customHeight="1">
+    <row r="214" spans="1:26" ht="15.75" customHeight="1">
       <c r="A214" s="36"/>
       <c r="B214" s="36"/>
       <c r="C214" s="36"/>
@@ -14213,7 +13945,7 @@
       <c r="Y214" s="36"/>
       <c r="Z214" s="36"/>
     </row>
-    <row r="215" ht="15.75" customHeight="1">
+    <row r="215" spans="1:26" ht="15.75" customHeight="1">
       <c r="A215" s="36"/>
       <c r="B215" s="36"/>
       <c r="C215" s="36"/>
@@ -14241,7 +13973,7 @@
       <c r="Y215" s="36"/>
       <c r="Z215" s="36"/>
     </row>
-    <row r="216" ht="15.75" customHeight="1">
+    <row r="216" spans="1:26" ht="15.75" customHeight="1">
       <c r="A216" s="36"/>
       <c r="B216" s="36"/>
       <c r="C216" s="36"/>
@@ -14269,7 +14001,7 @@
       <c r="Y216" s="36"/>
       <c r="Z216" s="36"/>
     </row>
-    <row r="217" ht="15.75" customHeight="1">
+    <row r="217" spans="1:26" ht="15.75" customHeight="1">
       <c r="A217" s="36"/>
       <c r="B217" s="36"/>
       <c r="C217" s="36"/>
@@ -14297,7 +14029,7 @@
       <c r="Y217" s="36"/>
       <c r="Z217" s="36"/>
     </row>
-    <row r="218" ht="15.75" customHeight="1">
+    <row r="218" spans="1:26" ht="15.75" customHeight="1">
       <c r="A218" s="36"/>
       <c r="B218" s="36"/>
       <c r="C218" s="36"/>
@@ -14325,7 +14057,7 @@
       <c r="Y218" s="36"/>
       <c r="Z218" s="36"/>
     </row>
-    <row r="219" ht="15.75" customHeight="1">
+    <row r="219" spans="1:26" ht="15.75" customHeight="1">
       <c r="A219" s="36"/>
       <c r="B219" s="36"/>
       <c r="C219" s="36"/>
@@ -14353,7 +14085,7 @@
       <c r="Y219" s="36"/>
       <c r="Z219" s="36"/>
     </row>
-    <row r="220" ht="15.75" customHeight="1">
+    <row r="220" spans="1:26" ht="15.75" customHeight="1">
       <c r="A220" s="36"/>
       <c r="B220" s="36"/>
       <c r="C220" s="36"/>
@@ -14381,10 +14113,10 @@
       <c r="Y220" s="36"/>
       <c r="Z220" s="36"/>
     </row>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="221" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="222" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="223" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="224" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="225" ht="15.75" customHeight="1"/>
     <row r="226" ht="15.75" customHeight="1"/>
     <row r="227" ht="15.75" customHeight="1"/>
@@ -15162,9 +14894,7 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup blackAndWhite="0" cellComments="none" copies="1" draft="0" errors="displayed" firstPageNumber="-1" fitToHeight="1" fitToWidth="1" horizontalDpi="600" orientation="landscape" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" usePrinterDefaults="1" verticalDpi="600"/>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="landscape"/>
 </worksheet>
 </file>